--- a/REGULAR/CTO/MALUBAY, MELINDA.xlsx
+++ b/REGULAR/CTO/MALUBAY, MELINDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="311">
   <si>
     <t>PERIOD</t>
   </si>
@@ -964,6 +964,9 @@
   </si>
   <si>
     <t>UT(0-1-26)</t>
+  </si>
+  <si>
+    <t>UT(0-0-42)</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1847,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1890,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1954,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2014,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2077,7 +2080,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2143,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2241,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2300,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2365,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2408,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2483,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2669,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2735,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2793,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2859,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2915,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +2990,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3033,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3099,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3155,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,7 +3253,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3313,7 +3316,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,7 +3382,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K696" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K697" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3757,12 +3760,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K696"/>
+  <dimension ref="A2:K697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A555" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E560" sqref="E560"/>
+      <selection pane="bottomLeft" activeCell="D560" sqref="D560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3927,7 +3930,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.24299999999999</v>
+        <v>198.15600000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -15118,7 +15121,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <f t="shared" ref="A501:A577" si="5">EDATE(A500,1)</f>
+        <f t="shared" ref="A501:A578" si="5">EDATE(A500,1)</f>
         <v>43435</v>
       </c>
       <c r="B501" s="20" t="s">
@@ -16469,43 +16472,38 @@
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="40">
-        <f t="shared" si="5"/>
-        <v>44713</v>
-      </c>
+      <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="C560" s="13">
-        <v>1.25</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C560" s="13"/>
       <c r="D560" s="39">
-        <v>0.17900000000000002</v>
+        <v>8.7000000000000022E-2</v>
       </c>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G560" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H560" s="39"/>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20"/>
+      <c r="K560" s="49"/>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <f t="shared" si="5"/>
-        <v>44743</v>
+        <f>EDATE(A559,1)</f>
+        <v>44713</v>
       </c>
       <c r="B561" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C561" s="13">
         <v>1.25</v>
       </c>
       <c r="D561" s="39">
-        <v>0.192</v>
+        <v>0.17900000000000002</v>
       </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
@@ -16521,16 +16519,16 @@
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <f t="shared" si="5"/>
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>115</v>
+        <v>308</v>
       </c>
       <c r="C562" s="13">
         <v>1.25</v>
       </c>
       <c r="D562" s="39">
-        <v>1</v>
+        <v>0.192</v>
       </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
@@ -16541,68 +16539,68 @@
       <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="49">
-        <v>44777</v>
-      </c>
+      <c r="K562" s="20"/>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="40"/>
+      <c r="A563" s="40">
+        <f t="shared" si="5"/>
+        <v>44774</v>
+      </c>
       <c r="B563" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C563" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D563" s="39">
-        <v>4.6000000000000006E-2</v>
+        <v>1</v>
       </c>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="49"/>
+      <c r="K563" s="49">
+        <v>44777</v>
+      </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="40">
-        <f>EDATE(A562,1)</f>
-        <v>44805</v>
-      </c>
+      <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C564" s="13">
-        <v>1.25</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C564" s="13"/>
       <c r="D564" s="39">
-        <v>0.24199999999999999</v>
+        <v>4.6000000000000006E-2</v>
       </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G564" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20"/>
+      <c r="K564" s="49"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <f t="shared" si="5"/>
-        <v>44835</v>
+        <f>EDATE(A563,1)</f>
+        <v>44805</v>
       </c>
       <c r="B565" s="20" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="C565" s="13">
         <v>1.25</v>
       </c>
       <c r="D565" s="39">
-        <v>2.3000000000000007E-2</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
@@ -16618,105 +16616,110 @@
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f t="shared" si="5"/>
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B566" s="20" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="C566" s="13">
         <v>1.25</v>
       </c>
-      <c r="D566" s="39"/>
+      <c r="D566" s="39">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
       <c r="G566" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H566" s="39">
-        <v>1</v>
-      </c>
+      <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="49">
-        <v>44868</v>
-      </c>
+      <c r="K566" s="20"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40"/>
+      <c r="A567" s="40">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
       <c r="B567" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="C567" s="13"/>
-      <c r="D567" s="39">
-        <v>5.2000000000000011E-2</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H567" s="39"/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H567" s="39">
+        <v>1</v>
+      </c>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="49"/>
+      <c r="K567" s="49">
+        <v>44868</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40">
-        <f>EDATE(A566,1)</f>
-        <v>44896</v>
-      </c>
+      <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C568" s="13">
-        <v>1.25</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C568" s="13"/>
       <c r="D568" s="39">
-        <v>2</v>
+        <v>5.2000000000000011E-2</v>
       </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20" t="s">
-        <v>301</v>
-      </c>
+      <c r="K568" s="49"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40"/>
+      <c r="A569" s="40">
+        <f>EDATE(A567,1)</f>
+        <v>44896</v>
+      </c>
       <c r="B569" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C569" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="C569" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D569" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G569" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
+      <c r="K569" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="C570" s="13"/>
       <c r="D570" s="39">
-        <v>3.7000000000000019E-2</v>
+        <v>1</v>
       </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
@@ -16730,12 +16733,14 @@
       <c r="K570" s="20"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B571" s="20"/>
+      <c r="A571" s="40"/>
+      <c r="B571" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C571" s="13"/>
-      <c r="D571" s="39"/>
+      <c r="D571" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
       <c r="G571" s="13" t="str">
@@ -16748,20 +16753,17 @@
       <c r="K571" s="20"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40">
-        <f>EDATE(A568,1)</f>
-        <v>44927</v>
+      <c r="A572" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="B572" s="20"/>
-      <c r="C572" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C572" s="13"/>
       <c r="D572" s="39"/>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
-      <c r="G572" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G572" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H572" s="39"/>
       <c r="I572" s="9"/>
@@ -16770,8 +16772,8 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <f t="shared" si="5"/>
-        <v>44958</v>
+        <f>EDATE(A569,1)</f>
+        <v>44927</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13">
@@ -16792,11 +16794,9 @@
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <f t="shared" si="5"/>
-        <v>44986</v>
-      </c>
-      <c r="B574" s="20" t="s">
-        <v>81</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B574" s="20"/>
       <c r="C574" s="13">
         <v>1.25</v>
       </c>
@@ -16810,63 +16810,61 @@
       <c r="H574" s="39"/>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="49">
-        <v>45030</v>
-      </c>
+      <c r="K574" s="20"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40"/>
+      <c r="A575" s="40">
+        <f t="shared" si="5"/>
+        <v>44986</v>
+      </c>
       <c r="B575" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C575" s="13"/>
+      <c r="C575" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D575" s="39"/>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G575" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
       <c r="K575" s="49">
-        <v>44995</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40">
-        <f>EDATE(A574,1)</f>
-        <v>45017</v>
-      </c>
+      <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C576" s="13">
-        <v>1.25</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C576" s="13"/>
       <c r="D576" s="39"/>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H576" s="39">
-        <v>1</v>
-      </c>
+      <c r="G576" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="39"/>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
       <c r="K576" s="49">
-        <v>45033</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <f t="shared" si="5"/>
-        <v>45047</v>
-      </c>
-      <c r="B577" s="20"/>
+        <f>EDATE(A575,1)</f>
+        <v>45017</v>
+      </c>
+      <c r="B577" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C577" s="13">
         <v>1.25</v>
       </c>
@@ -16877,18 +16875,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H577" s="39"/>
+      <c r="H577" s="39">
+        <v>1</v>
+      </c>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20"/>
+      <c r="K577" s="49">
+        <v>45033</v>
+      </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B578" s="20" t="s">
-        <v>75</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>45047</v>
+      </c>
+      <c r="B578" s="20"/>
       <c r="C578" s="13">
         <v>1.25</v>
       </c>
@@ -16899,29 +16900,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H578" s="39">
-        <v>1</v>
-      </c>
+      <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="49">
-        <v>45079</v>
-      </c>
+      <c r="K578" s="20"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B579" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C579" s="13"/>
+      <c r="C579" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D579" s="39"/>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G579" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H579" s="39">
         <v>1</v>
@@ -16929,14 +16928,16 @@
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
       <c r="K579" s="49">
-        <v>45118</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B580" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B580" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
       <c r="E580" s="9"/>
@@ -16945,14 +16946,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H580" s="39"/>
+      <c r="H580" s="39">
+        <v>1</v>
+      </c>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
+      <c r="K580" s="49">
+        <v>45118</v>
+      </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16970,7 +16975,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16988,7 +16993,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17006,7 +17011,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17024,7 +17029,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17042,7 +17047,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17060,7 +17065,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17078,7 +17083,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17096,7 +17101,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17114,7 +17119,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17132,7 +17137,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17150,7 +17155,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17168,7 +17173,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17186,7 +17191,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17204,7 +17209,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17222,7 +17227,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17240,7 +17245,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17258,7 +17263,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17276,7 +17281,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17294,7 +17299,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17312,7 +17317,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17330,7 +17335,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17347,7 +17352,9 @@
       <c r="K602" s="20"/>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A603" s="40"/>
+      <c r="A603" s="40">
+        <v>45809</v>
+      </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
       <c r="D603" s="39"/>
@@ -17539,7 +17546,7 @@
       <c r="K614" s="20"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" s="48"/>
+      <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
       <c r="D615" s="39"/>
@@ -17555,7 +17562,7 @@
       <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" s="40"/>
+      <c r="A616" s="48"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
       <c r="D616" s="39"/>
@@ -17747,7 +17754,7 @@
       <c r="K627" s="20"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="48"/>
+      <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
       <c r="D628" s="39"/>
@@ -17763,7 +17770,7 @@
       <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="40"/>
+      <c r="A629" s="48"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
       <c r="D629" s="39"/>
@@ -18201,7 +18208,10 @@
       <c r="D656" s="39"/>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="13"/>
+      <c r="G656" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H656" s="39"/>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
@@ -18604,10 +18614,7 @@
       <c r="D687" s="39"/>
       <c r="E687" s="9"/>
       <c r="F687" s="20"/>
-      <c r="G687" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G687" s="13"/>
       <c r="H687" s="39"/>
       <c r="I687" s="9"/>
       <c r="J687" s="11"/>
@@ -18742,20 +18749,36 @@
       <c r="K695" s="20"/>
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A696" s="41"/>
-      <c r="B696" s="15"/>
-      <c r="C696" s="42"/>
-      <c r="D696" s="43"/>
-      <c r="E696" s="51"/>
-      <c r="F696" s="15"/>
-      <c r="G696" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H696" s="43"/>
-      <c r="I696" s="51"/>
-      <c r="J696" s="12"/>
-      <c r="K696" s="15"/>
+      <c r="A696" s="40"/>
+      <c r="B696" s="20"/>
+      <c r="C696" s="13"/>
+      <c r="D696" s="39"/>
+      <c r="E696" s="9"/>
+      <c r="F696" s="20"/>
+      <c r="G696" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H696" s="39"/>
+      <c r="I696" s="9"/>
+      <c r="J696" s="11"/>
+      <c r="K696" s="20"/>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A697" s="41"/>
+      <c r="B697" s="15"/>
+      <c r="C697" s="42"/>
+      <c r="D697" s="43"/>
+      <c r="E697" s="51"/>
+      <c r="F697" s="15"/>
+      <c r="G697" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H697" s="43"/>
+      <c r="I697" s="51"/>
+      <c r="J697" s="12"/>
+      <c r="K697" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18867,14 +18890,14 @@
       <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.17900000000000002</v>
+        <v>8.7000000000000022E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -18923,7 +18946,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>302.36899999999997</v>
+        <v>302.28199999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/MALUBAY, MELINDA.xlsx
+++ b/REGULAR/CTO/MALUBAY, MELINDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="318">
   <si>
     <t>PERIOD</t>
   </si>
@@ -967,6 +967,27 @@
   </si>
   <si>
     <t>UT(0-0-42)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>4/12,13,22/2022</t>
+  </si>
+  <si>
+    <t>UT(0-0-46)</t>
+  </si>
+  <si>
+    <t>7/17-21,24-28/2023</t>
+  </si>
+  <si>
+    <t>SL(9-0-0)</t>
+  </si>
+  <si>
+    <t>8/1-4, 7-11/2023</t>
+  </si>
+  <si>
+    <t>9/4-8/2023</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1868,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1911,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1975,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2035,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2101,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2164,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2262,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2321,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2386,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2429,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2504,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2690,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2756,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2814,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2859,7 +2880,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2915,7 +2936,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,7 +3011,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3033,7 +3054,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3099,7 +3120,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3176,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3274,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,7 +3337,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3403,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K697" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K701" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3760,12 +3781,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K697"/>
+  <dimension ref="A2:K701"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A555" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A573" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="D560" sqref="D560"/>
+      <selection pane="bottomLeft" activeCell="K586" sqref="K586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3930,7 +3951,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.15600000000001</v>
+        <v>196.56</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3940,7 +3961,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>104.12599999999998</v>
+        <v>81.625999999999976</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15121,7 +15142,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <f t="shared" ref="A501:A578" si="5">EDATE(A500,1)</f>
+        <f t="shared" ref="A501:A579" si="5">EDATE(A500,1)</f>
         <v>43435</v>
       </c>
       <c r="B501" s="20" t="s">
@@ -16424,20 +16445,19 @@
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="40">
-        <f t="shared" si="5"/>
-        <v>44652</v>
-      </c>
-      <c r="B558" s="20"/>
-      <c r="C558" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D558" s="39"/>
+      <c r="A558" s="40"/>
+      <c r="B558" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C558" s="13"/>
+      <c r="D558" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G558" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H558" s="39"/>
       <c r="I558" s="9"/>
@@ -16446,17 +16466,17 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <f t="shared" si="5"/>
-        <v>44682</v>
+        <f>EDATE(A557,1)</f>
+        <v>44652</v>
       </c>
       <c r="B559" s="20" t="s">
-        <v>115</v>
+        <v>311</v>
       </c>
       <c r="C559" s="13">
         <v>1.25</v>
       </c>
       <c r="D559" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
@@ -16467,68 +16487,70 @@
       <c r="H559" s="39"/>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="49">
-        <v>44699</v>
+      <c r="K559" s="20" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="40"/>
+      <c r="A560" s="40">
+        <f t="shared" si="5"/>
+        <v>44682</v>
+      </c>
       <c r="B560" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C560" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="C560" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D560" s="39">
-        <v>8.7000000000000022E-2</v>
+        <v>1</v>
       </c>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G560" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H560" s="39"/>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="49"/>
+      <c r="K560" s="49">
+        <v>44699</v>
+      </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40">
-        <f>EDATE(A559,1)</f>
-        <v>44713</v>
-      </c>
+      <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="C561" s="13">
-        <v>1.25</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C561" s="13"/>
       <c r="D561" s="39">
-        <v>0.17900000000000002</v>
+        <v>8.7000000000000022E-2</v>
       </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="20"/>
+      <c r="K561" s="49"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <f t="shared" si="5"/>
-        <v>44743</v>
+        <f>EDATE(A560,1)</f>
+        <v>44713</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C562" s="13">
         <v>1.25</v>
       </c>
       <c r="D562" s="39">
-        <v>0.192</v>
+        <v>0.17900000000000002</v>
       </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
@@ -16544,16 +16566,16 @@
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <f t="shared" si="5"/>
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B563" s="20" t="s">
-        <v>115</v>
+        <v>308</v>
       </c>
       <c r="C563" s="13">
         <v>1.25</v>
       </c>
       <c r="D563" s="39">
-        <v>1</v>
+        <v>0.192</v>
       </c>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
@@ -16564,68 +16586,68 @@
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="49">
-        <v>44777</v>
-      </c>
+      <c r="K563" s="20"/>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="40"/>
+      <c r="A564" s="40">
+        <f t="shared" si="5"/>
+        <v>44774</v>
+      </c>
       <c r="B564" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C564" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="C564" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D564" s="39">
-        <v>4.6000000000000006E-2</v>
+        <v>1</v>
       </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G564" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="49"/>
+      <c r="K564" s="49">
+        <v>44777</v>
+      </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A565" s="40">
-        <f>EDATE(A563,1)</f>
-        <v>44805</v>
-      </c>
+      <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C565" s="13">
-        <v>1.25</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C565" s="13"/>
       <c r="D565" s="39">
-        <v>0.24199999999999999</v>
+        <v>4.6000000000000006E-2</v>
       </c>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G565" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="20"/>
+      <c r="K565" s="49"/>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <f t="shared" si="5"/>
-        <v>44835</v>
+        <f>EDATE(A564,1)</f>
+        <v>44805</v>
       </c>
       <c r="B566" s="20" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="C566" s="13">
         <v>1.25</v>
       </c>
       <c r="D566" s="39">
-        <v>2.3000000000000007E-2</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
@@ -16641,105 +16663,110 @@
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <f t="shared" si="5"/>
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B567" s="20" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="C567" s="13">
         <v>1.25</v>
       </c>
-      <c r="D567" s="39"/>
+      <c r="D567" s="39">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
       <c r="G567" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H567" s="39">
-        <v>1</v>
-      </c>
+      <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="49">
-        <v>44868</v>
-      </c>
+      <c r="K567" s="20"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40"/>
+      <c r="A568" s="40">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
       <c r="B568" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="C568" s="13"/>
-      <c r="D568" s="39">
-        <v>5.2000000000000011E-2</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H568" s="39"/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H568" s="39">
+        <v>1</v>
+      </c>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="49"/>
+      <c r="K568" s="49">
+        <v>44868</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40">
-        <f>EDATE(A567,1)</f>
-        <v>44896</v>
-      </c>
+      <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C569" s="13">
-        <v>1.25</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C569" s="13"/>
       <c r="D569" s="39">
-        <v>2</v>
+        <v>5.2000000000000011E-2</v>
       </c>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20" t="s">
-        <v>301</v>
-      </c>
+      <c r="K569" s="49"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40"/>
+      <c r="A570" s="40">
+        <f>EDATE(A568,1)</f>
+        <v>44896</v>
+      </c>
       <c r="B570" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C570" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="C570" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D570" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G570" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20"/>
+      <c r="K570" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="C571" s="13"/>
       <c r="D571" s="39">
-        <v>3.7000000000000019E-2</v>
+        <v>1</v>
       </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
@@ -16753,12 +16780,14 @@
       <c r="K571" s="20"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B572" s="20"/>
+      <c r="A572" s="40"/>
+      <c r="B572" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C572" s="13"/>
-      <c r="D572" s="39"/>
+      <c r="D572" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
       <c r="G572" s="13" t="str">
@@ -16771,20 +16800,17 @@
       <c r="K572" s="20"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40">
-        <f>EDATE(A569,1)</f>
-        <v>44927</v>
+      <c r="A573" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="B573" s="20"/>
-      <c r="C573" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C573" s="13"/>
       <c r="D573" s="39"/>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
@@ -16793,8 +16819,8 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <f t="shared" si="5"/>
-        <v>44958</v>
+        <f>EDATE(A570,1)</f>
+        <v>44927</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13">
@@ -16815,11 +16841,9 @@
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <f t="shared" si="5"/>
-        <v>44986</v>
-      </c>
-      <c r="B575" s="20" t="s">
-        <v>81</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B575" s="20"/>
       <c r="C575" s="13">
         <v>1.25</v>
       </c>
@@ -16833,63 +16857,61 @@
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="49">
-        <v>45030</v>
-      </c>
+      <c r="K575" s="20"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40"/>
+      <c r="A576" s="40">
+        <f t="shared" si="5"/>
+        <v>44986</v>
+      </c>
       <c r="B576" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C576" s="13"/>
+      <c r="C576" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D576" s="39"/>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G576" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H576" s="39"/>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
       <c r="K576" s="49">
-        <v>44995</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40">
-        <f>EDATE(A575,1)</f>
-        <v>45017</v>
-      </c>
+      <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C577" s="13">
-        <v>1.25</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C577" s="13"/>
       <c r="D577" s="39"/>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H577" s="39">
-        <v>1</v>
-      </c>
+      <c r="G577" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
       <c r="K577" s="49">
-        <v>45033</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <f t="shared" si="5"/>
-        <v>45047</v>
-      </c>
-      <c r="B578" s="20"/>
+        <f>EDATE(A576,1)</f>
+        <v>45017</v>
+      </c>
+      <c r="B578" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C578" s="13">
         <v>1.25</v>
       </c>
@@ -16900,18 +16922,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H578" s="39"/>
+      <c r="H578" s="39">
+        <v>1</v>
+      </c>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20"/>
+      <c r="K578" s="49">
+        <v>45033</v>
+      </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B579" s="20" t="s">
-        <v>75</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>45047</v>
+      </c>
+      <c r="B579" s="20"/>
       <c r="C579" s="13">
         <v>1.25</v>
       </c>
@@ -16922,29 +16947,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H579" s="39">
-        <v>1</v>
-      </c>
+      <c r="H579" s="39"/>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="49">
-        <v>45079</v>
-      </c>
+      <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B580" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C580" s="13"/>
+      <c r="C580" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D580" s="39"/>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
-      <c r="G580" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G580" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H580" s="39">
         <v>1</v>
@@ -16952,50 +16975,66 @@
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
       <c r="K580" s="49">
-        <v>45118</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B581" s="20"/>
-      <c r="C581" s="13"/>
+        <v>45108</v>
+      </c>
+      <c r="B581" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C581" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D581" s="39"/>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
-      <c r="G581" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H581" s="39"/>
+      <c r="G581" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H581" s="39">
+        <v>1</v>
+      </c>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20"/>
+      <c r="K581" s="49">
+        <v>45118</v>
+      </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B582" s="20"/>
-      <c r="C582" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B582" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C582" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D582" s="39"/>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H582" s="39"/>
+      <c r="G582" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H582" s="39">
+        <v>10</v>
+      </c>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="20"/>
+      <c r="K582" s="20" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B583" s="20"/>
+      <c r="A583" s="40"/>
+      <c r="B583" s="20" t="s">
+        <v>315</v>
+      </c>
       <c r="C583" s="13"/>
       <c r="D583" s="39"/>
       <c r="E583" s="9"/>
@@ -17004,16 +17043,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H583" s="39"/>
+      <c r="H583" s="39">
+        <v>9</v>
+      </c>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="20"/>
+      <c r="K583" s="20" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B584" s="20"/>
+      <c r="A584" s="40"/>
+      <c r="B584" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C584" s="13"/>
       <c r="D584" s="39"/>
       <c r="E584" s="9"/>
@@ -17022,16 +17065,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H584" s="39"/>
+      <c r="H584" s="39">
+        <v>1</v>
+      </c>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="20"/>
+      <c r="K584" s="49">
+        <v>45163</v>
+      </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B585" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B585" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
       <c r="E585" s="9"/>
@@ -17040,18 +17089,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H585" s="39"/>
+      <c r="H585" s="39">
+        <v>5</v>
+      </c>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="20"/>
+      <c r="K585" s="20" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B586" s="20"/>
+      <c r="A586" s="40"/>
+      <c r="B586" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="C586" s="13"/>
-      <c r="D586" s="39"/>
+      <c r="D586" s="39">
+        <v>1</v>
+      </c>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
       <c r="G586" s="13" t="str">
@@ -17061,11 +17116,13 @@
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="20"/>
+      <c r="K586" s="49">
+        <v>45191</v>
+      </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45323</v>
+        <v>45200</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17083,7 +17140,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45352</v>
+        <v>45231</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17101,7 +17158,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45383</v>
+        <v>45261</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17119,7 +17176,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17137,7 +17194,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17155,7 +17212,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17173,7 +17230,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17191,7 +17248,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17209,7 +17266,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17227,7 +17284,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17245,7 +17302,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17263,7 +17320,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17281,7 +17338,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17299,7 +17356,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17317,7 +17374,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17335,7 +17392,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17353,7 +17410,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17370,7 +17427,9 @@
       <c r="K603" s="20"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="40"/>
+      <c r="A604" s="40">
+        <v>45717</v>
+      </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
       <c r="D604" s="39"/>
@@ -17386,7 +17445,9 @@
       <c r="K604" s="20"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="40"/>
+      <c r="A605" s="40">
+        <v>45748</v>
+      </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
       <c r="D605" s="39"/>
@@ -17402,7 +17463,9 @@
       <c r="K605" s="20"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="40"/>
+      <c r="A606" s="40">
+        <v>45778</v>
+      </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
       <c r="D606" s="39"/>
@@ -17418,7 +17481,9 @@
       <c r="K606" s="20"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A607" s="40"/>
+      <c r="A607" s="40">
+        <v>45809</v>
+      </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
       <c r="D607" s="39"/>
@@ -17562,7 +17627,7 @@
       <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" s="48"/>
+      <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
       <c r="D616" s="39"/>
@@ -17626,7 +17691,7 @@
       <c r="K619" s="20"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A620" s="40"/>
+      <c r="A620" s="48"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
       <c r="D620" s="39"/>
@@ -17770,7 +17835,7 @@
       <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="48"/>
+      <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
       <c r="D629" s="39"/>
@@ -17834,7 +17899,7 @@
       <c r="K632" s="20"/>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="40"/>
+      <c r="A633" s="48"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
       <c r="D633" s="39"/>
@@ -18224,7 +18289,10 @@
       <c r="D657" s="39"/>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="13"/>
+      <c r="G657" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H657" s="39"/>
       <c r="I657" s="9"/>
       <c r="J657" s="11"/>
@@ -18237,7 +18305,10 @@
       <c r="D658" s="39"/>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
-      <c r="G658" s="13"/>
+      <c r="G658" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H658" s="39"/>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
@@ -18250,7 +18321,10 @@
       <c r="D659" s="39"/>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
-      <c r="G659" s="13"/>
+      <c r="G659" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H659" s="39"/>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
@@ -18263,7 +18337,10 @@
       <c r="D660" s="39"/>
       <c r="E660" s="9"/>
       <c r="F660" s="20"/>
-      <c r="G660" s="13"/>
+      <c r="G660" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H660" s="39"/>
       <c r="I660" s="9"/>
       <c r="J660" s="11"/>
@@ -18627,10 +18704,7 @@
       <c r="D688" s="39"/>
       <c r="E688" s="9"/>
       <c r="F688" s="20"/>
-      <c r="G688" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G688" s="13"/>
       <c r="H688" s="39"/>
       <c r="I688" s="9"/>
       <c r="J688" s="11"/>
@@ -18643,10 +18717,7 @@
       <c r="D689" s="39"/>
       <c r="E689" s="9"/>
       <c r="F689" s="20"/>
-      <c r="G689" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G689" s="13"/>
       <c r="H689" s="39"/>
       <c r="I689" s="9"/>
       <c r="J689" s="11"/>
@@ -18659,10 +18730,7 @@
       <c r="D690" s="39"/>
       <c r="E690" s="9"/>
       <c r="F690" s="20"/>
-      <c r="G690" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G690" s="13"/>
       <c r="H690" s="39"/>
       <c r="I690" s="9"/>
       <c r="J690" s="11"/>
@@ -18675,10 +18743,7 @@
       <c r="D691" s="39"/>
       <c r="E691" s="9"/>
       <c r="F691" s="20"/>
-      <c r="G691" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G691" s="13"/>
       <c r="H691" s="39"/>
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
@@ -18765,20 +18830,84 @@
       <c r="K696" s="20"/>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A697" s="41"/>
-      <c r="B697" s="15"/>
-      <c r="C697" s="42"/>
-      <c r="D697" s="43"/>
-      <c r="E697" s="51"/>
-      <c r="F697" s="15"/>
-      <c r="G697" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H697" s="43"/>
-      <c r="I697" s="51"/>
-      <c r="J697" s="12"/>
-      <c r="K697" s="15"/>
+      <c r="A697" s="40"/>
+      <c r="B697" s="20"/>
+      <c r="C697" s="13"/>
+      <c r="D697" s="39"/>
+      <c r="E697" s="9"/>
+      <c r="F697" s="20"/>
+      <c r="G697" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H697" s="39"/>
+      <c r="I697" s="9"/>
+      <c r="J697" s="11"/>
+      <c r="K697" s="20"/>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A698" s="40"/>
+      <c r="B698" s="20"/>
+      <c r="C698" s="13"/>
+      <c r="D698" s="39"/>
+      <c r="E698" s="9"/>
+      <c r="F698" s="20"/>
+      <c r="G698" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H698" s="39"/>
+      <c r="I698" s="9"/>
+      <c r="J698" s="11"/>
+      <c r="K698" s="20"/>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A699" s="40"/>
+      <c r="B699" s="20"/>
+      <c r="C699" s="13"/>
+      <c r="D699" s="39"/>
+      <c r="E699" s="9"/>
+      <c r="F699" s="20"/>
+      <c r="G699" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H699" s="39"/>
+      <c r="I699" s="9"/>
+      <c r="J699" s="11"/>
+      <c r="K699" s="20"/>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A700" s="40"/>
+      <c r="B700" s="20"/>
+      <c r="C700" s="13"/>
+      <c r="D700" s="39"/>
+      <c r="E700" s="9"/>
+      <c r="F700" s="20"/>
+      <c r="G700" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H700" s="39"/>
+      <c r="I700" s="9"/>
+      <c r="J700" s="11"/>
+      <c r="K700" s="20"/>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A701" s="41"/>
+      <c r="B701" s="15"/>
+      <c r="C701" s="42"/>
+      <c r="D701" s="43"/>
+      <c r="E701" s="51"/>
+      <c r="F701" s="15"/>
+      <c r="G701" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H701" s="43"/>
+      <c r="I701" s="51"/>
+      <c r="J701" s="12"/>
+      <c r="K701" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18893,11 +19022,11 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>8.7000000000000022E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -18946,7 +19075,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>302.28199999999998</v>
+        <v>278.18599999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/MALUBAY, MELINDA.xlsx
+++ b/REGULAR/CTO/MALUBAY, MELINDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742E194C-443B-419F-94D6-F2420288E812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="319">
   <si>
     <t>PERIOD</t>
   </si>
@@ -989,12 +988,15 @@
   </si>
   <si>
     <t>9/4-8/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1869,7 +1871,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1914,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1978,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2038,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2104,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2167,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2265,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2324,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2389,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2432,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2507,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2693,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2759,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2815,7 +2817,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +2883,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2939,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,7 +3014,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3055,7 +3057,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3121,7 +3123,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3177,7 +3179,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3275,7 +3277,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3338,7 +3340,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3389,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3404,25 +3406,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K702" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K703" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3434,13 +3436,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3449,14 +3451,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3760,7 +3762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3770,7 +3772,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3778,34 +3780,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K702"/>
+  <dimension ref="A2:K703"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A582" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A582" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B591" sqref="B591"/>
+      <selection pane="bottomLeft" activeCell="K592" sqref="K592"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3826,7 +3828,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3848,7 +3850,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3870,7 +3872,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3878,7 +3880,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3891,7 +3893,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3908,7 +3910,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3943,7 +3945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3952,7 +3954,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>197.31</v>
+        <v>198.56</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3962,12 +3964,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>84.375999999999976</v>
+        <v>85.625999999999976</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
@@ -3982,7 +3984,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>33619</v>
       </c>
@@ -4002,7 +4004,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>33635</v>
       </c>
@@ -4022,7 +4024,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>33664</v>
@@ -4043,7 +4045,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A81" si="0">EDATE(A13,1)</f>
         <v>33695</v>
@@ -4064,7 +4066,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>33725</v>
@@ -4085,7 +4087,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>33756</v>
@@ -4106,7 +4108,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>33786</v>
@@ -4127,7 +4129,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>33817</v>
@@ -4148,7 +4150,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>33848</v>
@@ -4169,7 +4171,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>33878</v>
@@ -4190,7 +4192,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>33909</v>
@@ -4211,7 +4213,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>33939</v>
@@ -4232,7 +4234,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>42</v>
       </c>
@@ -4250,7 +4252,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A22,1)</f>
         <v>33970</v>
@@ -4271,7 +4273,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>34001</v>
@@ -4292,7 +4294,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>34029</v>
@@ -4313,7 +4315,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>34060</v>
@@ -4334,7 +4336,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>34090</v>
@@ -4355,7 +4357,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>34121</v>
@@ -4376,7 +4378,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>34151</v>
@@ -4397,7 +4399,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>34182</v>
@@ -4418,7 +4420,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>34213</v>
@@ -4439,7 +4441,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>34243</v>
@@ -4460,7 +4462,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>34274</v>
@@ -4481,7 +4483,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>34304</v>
@@ -4506,7 +4508,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>43</v>
       </c>
@@ -4524,7 +4526,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>34335</v>
@@ -4545,7 +4547,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="0"/>
         <v>34366</v>
@@ -4566,7 +4568,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="0"/>
         <v>34394</v>
@@ -4587,7 +4589,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="0"/>
         <v>34425</v>
@@ -4608,7 +4610,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f>EDATE(A40,1)</f>
         <v>34455</v>
@@ -4629,7 +4631,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>34486</v>
@@ -4650,7 +4652,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>34516</v>
@@ -4671,7 +4673,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>34547</v>
@@ -4692,7 +4694,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>34578</v>
@@ -4713,7 +4715,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>34608</v>
@@ -4736,7 +4738,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>34639</v>
@@ -4759,7 +4761,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>34669</v>
@@ -4784,7 +4786,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>44</v>
       </c>
@@ -4802,7 +4804,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>34700</v>
@@ -4823,7 +4825,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>34731</v>
@@ -4844,7 +4846,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>34759</v>
@@ -4865,7 +4867,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4888,7 +4890,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4915,7 +4917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4942,7 +4944,7 @@
         <v>34548</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4963,7 +4965,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="49"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4984,7 +4986,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -5005,7 +5007,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="49"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -5026,7 +5028,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -5047,7 +5049,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="49"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -5068,7 +5070,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="49"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>45</v>
       </c>
@@ -5086,7 +5088,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="49"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>35065</v>
@@ -5107,7 +5109,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>35096</v>
@@ -5128,7 +5130,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="0"/>
         <v>35125</v>
@@ -5149,7 +5151,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -5170,7 +5172,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="49"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -5191,7 +5193,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -5212,7 +5214,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="49"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -5239,7 +5241,7 @@
         <v>35271</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -5260,7 +5262,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -5281,7 +5283,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -5304,7 +5306,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -5329,7 +5331,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -5354,7 +5356,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>46</v>
       </c>
@@ -5372,7 +5374,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A74,1)</f>
         <v>35431</v>
@@ -5399,7 +5401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -5426,7 +5428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -5451,7 +5453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -5476,7 +5478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -5503,7 +5505,7 @@
         <v>35573</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -5530,7 +5532,7 @@
         <v>35598</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>75</v>
@@ -5552,7 +5554,7 @@
         <v>35608</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>35612</v>
@@ -5579,7 +5581,7 @@
         <v>35626</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>75</v>
@@ -5601,7 +5603,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A83,1)</f>
         <v>35643</v>
@@ -5622,7 +5624,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="49"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" ref="A86:A179" si="1">EDATE(A85,1)</f>
         <v>35674</v>
@@ -5643,7 +5645,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -5664,7 +5666,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="1"/>
         <v>35735</v>
@@ -5691,7 +5693,7 @@
         <v>35737</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="1"/>
         <v>35765</v>
@@ -5716,7 +5718,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>47</v>
       </c>
@@ -5734,7 +5736,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A89,1)</f>
         <v>35796</v>
@@ -5755,7 +5757,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="1"/>
         <v>35827</v>
@@ -5782,7 +5784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="1"/>
         <v>35855</v>
@@ -5803,7 +5805,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -5824,7 +5826,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -5845,7 +5847,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -5872,7 +5874,7 @@
         <v>35949</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -5899,7 +5901,7 @@
         <v>35990</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>75</v>
@@ -5921,7 +5923,7 @@
         <v>36007</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>36008</v>
@@ -5942,7 +5944,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -5969,7 +5971,7 @@
         <v>36056</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -5996,7 +5998,7 @@
         <v>36077</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -6021,7 +6023,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -6048,7 +6050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>85</v>
@@ -6068,7 +6070,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="49"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>89</v>
@@ -6088,7 +6090,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>48</v>
       </c>
@@ -6106,7 +6108,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A103,1)</f>
         <v>36161</v>
@@ -6133,7 +6135,7 @@
         <v>36164</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="1"/>
         <v>36192</v>
@@ -6154,7 +6156,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="1"/>
         <v>36220</v>
@@ -6181,7 +6183,7 @@
         <v>36230</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>81</v>
@@ -6201,7 +6203,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>91</v>
@@ -6221,7 +6223,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A109,1)</f>
         <v>36251</v>
@@ -6246,7 +6248,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -6273,7 +6275,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>94</v>
@@ -6293,7 +6295,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>36312</v>
@@ -6320,7 +6322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>95</v>
@@ -6340,7 +6342,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A115,1)</f>
         <v>36342</v>
@@ -6367,7 +6369,7 @@
         <v>36353</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>97</v>
@@ -6387,7 +6389,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>36373</v>
@@ -6412,7 +6414,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -6437,7 +6439,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -6462,7 +6464,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -6487,7 +6489,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="49"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -6512,7 +6514,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="49"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>85</v>
@@ -6532,7 +6534,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="49"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>49</v>
       </c>
@@ -6550,7 +6552,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="49"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A123,1)</f>
         <v>36526</v>
@@ -6575,7 +6577,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>36557</v>
@@ -6602,7 +6604,7 @@
         <v>36560</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>75</v>
@@ -6624,7 +6626,7 @@
         <v>36567</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>103</v>
@@ -6644,7 +6646,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A127,1)</f>
         <v>36586</v>
@@ -6669,7 +6671,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>36617</v>
@@ -6694,7 +6696,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -6719,7 +6721,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="49"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -6744,7 +6746,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="49"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -6769,7 +6771,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -6796,7 +6798,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>110</v>
@@ -6816,7 +6818,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>36770</v>
@@ -6837,7 +6839,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -6862,7 +6864,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -6887,7 +6889,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="1"/>
         <v>36861</v>
@@ -6912,7 +6914,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>112</v>
@@ -6932,7 +6934,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>50</v>
       </c>
@@ -6950,7 +6952,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A140,1)</f>
         <v>36892</v>
@@ -6977,7 +6979,7 @@
         <v>36906</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>113</v>
@@ -6997,7 +6999,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>89</v>
@@ -7017,7 +7019,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="49"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A143,1)</f>
         <v>36923</v>
@@ -7044,7 +7046,7 @@
         <v>36934</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>75</v>
@@ -7066,7 +7068,7 @@
         <v>36937</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>89</v>
@@ -7086,7 +7088,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f>EDATE(A146,1)</f>
         <v>36951</v>
@@ -7113,7 +7115,7 @@
         <v>36959</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>116</v>
@@ -7133,7 +7135,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="49"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>36982</v>
@@ -7160,7 +7162,7 @@
         <v>37001</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>75</v>
@@ -7182,7 +7184,7 @@
         <v>37011</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>117</v>
@@ -7202,7 +7204,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>37012</v>
@@ -7229,7 +7231,7 @@
         <v>37034</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>74</v>
@@ -7251,7 +7253,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>118</v>
@@ -7271,7 +7273,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A154,1)</f>
         <v>37043</v>
@@ -7296,7 +7298,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -7321,7 +7323,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -7346,7 +7348,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -7371,7 +7373,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -7396,7 +7398,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -7423,7 +7425,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>95</v>
@@ -7443,7 +7445,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f>EDATE(A162,1)</f>
         <v>37226</v>
@@ -7468,7 +7470,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
         <v>51</v>
       </c>
@@ -7486,7 +7488,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A164,1)</f>
         <v>37257</v>
@@ -7511,7 +7513,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -7536,7 +7538,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -7561,7 +7563,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="49"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -7588,7 +7590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>129</v>
@@ -7608,7 +7610,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>81</v>
@@ -7628,7 +7630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A169,1)</f>
         <v>37377</v>
@@ -7653,7 +7655,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -7680,7 +7682,7 @@
         <v>37420</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>131</v>
@@ -7700,7 +7702,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="49"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>37438</v>
@@ -7727,7 +7729,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -7748,7 +7750,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="49"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -7769,7 +7771,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -7790,7 +7792,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="49"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -7817,7 +7819,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" ref="A180:A254" si="2">EDATE(A179,1)</f>
         <v>37591</v>
@@ -7842,7 +7844,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="49"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="48" t="s">
         <v>52</v>
       </c>
@@ -7860,7 +7862,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="49"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f>EDATE(A180,1)</f>
         <v>37622</v>
@@ -7881,7 +7883,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="49"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="2"/>
         <v>37653</v>
@@ -7908,7 +7910,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="2"/>
         <v>37681</v>
@@ -7929,7 +7931,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="2"/>
         <v>37712</v>
@@ -7954,7 +7956,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="2"/>
         <v>37742</v>
@@ -7975,7 +7977,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="2"/>
         <v>37773</v>
@@ -7996,7 +7998,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="2"/>
         <v>37803</v>
@@ -8017,7 +8019,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="2"/>
         <v>37834</v>
@@ -8038,7 +8040,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="2"/>
         <v>37865</v>
@@ -8059,7 +8061,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="2"/>
         <v>37895</v>
@@ -8080,7 +8082,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="2"/>
         <v>37926</v>
@@ -8107,7 +8109,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="2"/>
         <v>37956</v>
@@ -8132,7 +8134,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="48" t="s">
         <v>53</v>
       </c>
@@ -8150,7 +8152,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>37987</v>
@@ -8171,7 +8173,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="2"/>
         <v>38018</v>
@@ -8192,7 +8194,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="2"/>
         <v>38047</v>
@@ -8213,7 +8215,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="2"/>
         <v>38078</v>
@@ -8234,7 +8236,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="2"/>
         <v>38108</v>
@@ -8255,7 +8257,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="2"/>
         <v>38139</v>
@@ -8276,7 +8278,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="2"/>
         <v>38169</v>
@@ -8297,7 +8299,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="2"/>
         <v>38200</v>
@@ -8318,7 +8320,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="2"/>
         <v>38231</v>
@@ -8345,7 +8347,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>134</v>
@@ -8367,7 +8369,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>38261</v>
@@ -8388,7 +8390,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="2"/>
         <v>38292</v>
@@ -8413,7 +8415,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>84</v>
@@ -8435,7 +8437,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>38322</v>
@@ -8456,7 +8458,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="48" t="s">
         <v>54</v>
       </c>
@@ -8474,7 +8476,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A208,1)</f>
         <v>38353</v>
@@ -8495,7 +8497,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="2"/>
         <v>38384</v>
@@ -8516,7 +8518,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="2"/>
         <v>38412</v>
@@ -8537,7 +8539,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="49"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -8558,7 +8560,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="2"/>
         <v>38473</v>
@@ -8579,7 +8581,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -8600,7 +8602,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -8621,7 +8623,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="49"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -8646,7 +8648,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -8667,7 +8669,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="49"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -8688,7 +8690,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -8715,7 +8717,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>145</v>
@@ -8737,7 +8739,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>38687</v>
@@ -8764,7 +8766,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>124</v>
@@ -8784,7 +8786,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="49"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="48" t="s">
         <v>55</v>
       </c>
@@ -8802,7 +8804,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="49"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A222,1)</f>
         <v>38718</v>
@@ -8829,7 +8831,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>85</v>
@@ -8851,7 +8853,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f>EDATE(A225,1)</f>
         <v>38749</v>
@@ -8872,7 +8874,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="2"/>
         <v>38777</v>
@@ -8893,7 +8895,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -8920,7 +8922,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -8945,7 +8947,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -8970,7 +8972,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -8991,7 +8993,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -9012,7 +9014,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -9039,7 +9041,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="2"/>
         <v>38991</v>
@@ -9060,7 +9062,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -9081,7 +9083,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="49"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -9102,7 +9104,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>56</v>
       </c>
@@ -9120,7 +9122,7 @@
       <c r="J238" s="12"/>
       <c r="K238" s="15"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>39083</v>
@@ -9141,7 +9143,7 @@
       <c r="J239" s="12"/>
       <c r="K239" s="50"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="2"/>
         <v>39114</v>
@@ -9162,7 +9164,7 @@
       <c r="J240" s="12"/>
       <c r="K240" s="15"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -9183,7 +9185,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="2"/>
         <v>39173</v>
@@ -9204,7 +9206,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -9225,7 +9227,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="49"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="2"/>
         <v>39234</v>
@@ -9246,7 +9248,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -9267,7 +9269,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="2"/>
         <v>39295</v>
@@ -9288,7 +9290,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -9309,7 +9311,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="49"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="2"/>
         <v>39356</v>
@@ -9330,7 +9332,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -9351,7 +9353,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -9376,7 +9378,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="48" t="s">
         <v>57</v>
       </c>
@@ -9394,7 +9396,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39448</v>
@@ -9415,7 +9417,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="2"/>
         <v>39479</v>
@@ -9436,7 +9438,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="2"/>
         <v>39508</v>
@@ -9457,7 +9459,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="49"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" ref="A255:A388" si="3">EDATE(A254,1)</f>
         <v>39539</v>
@@ -9478,7 +9480,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="3"/>
         <v>39569</v>
@@ -9499,7 +9501,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="3"/>
         <v>39600</v>
@@ -9520,7 +9522,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="3"/>
         <v>39630</v>
@@ -9541,7 +9543,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="3"/>
         <v>39661</v>
@@ -9562,7 +9564,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="49"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="3"/>
         <v>39692</v>
@@ -9587,7 +9589,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="3"/>
         <v>39722</v>
@@ -9614,7 +9616,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>74</v>
@@ -9636,7 +9638,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>81</v>
@@ -9656,7 +9658,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>172</v>
@@ -9676,7 +9678,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="49"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f>EDATE(A261,1)</f>
         <v>39753</v>
@@ -9703,7 +9705,7 @@
         <v>39776</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>85</v>
@@ -9725,7 +9727,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>75</v>
@@ -9747,7 +9749,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>175</v>
@@ -9767,7 +9769,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f>EDATE(A265,1)</f>
         <v>39783</v>
@@ -9794,7 +9796,7 @@
         <v>39801</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>176</v>
@@ -9814,7 +9816,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="49"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="48" t="s">
         <v>58</v>
       </c>
@@ -9832,7 +9834,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="49"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A269,1)</f>
         <v>39814</v>
@@ -9859,7 +9861,7 @@
         <v>39846</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>154</v>
@@ -9879,7 +9881,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="49"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>39845</v>
@@ -9906,7 +9908,7 @@
         <v>39849</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>74</v>
@@ -9928,7 +9930,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>81</v>
@@ -9948,7 +9950,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>155</v>
@@ -9968,7 +9970,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f>EDATE(A274,1)</f>
         <v>39873</v>
@@ -9993,7 +9995,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" si="3"/>
         <v>39904</v>
@@ -10020,7 +10022,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>81</v>
@@ -10040,7 +10042,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>161</v>
@@ -10060,7 +10062,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>39934</v>
@@ -10087,7 +10089,7 @@
         <v>39969</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>154</v>
@@ -10107,7 +10109,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="49"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>39965</v>
@@ -10132,7 +10134,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="3"/>
         <v>39995</v>
@@ -10159,7 +10161,7 @@
         <v>40014</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>92</v>
@@ -10179,7 +10181,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="49"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>40026</v>
@@ -10204,7 +10206,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" si="3"/>
         <v>40057</v>
@@ -10231,7 +10233,7 @@
         <v>40067</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>165</v>
@@ -10251,7 +10253,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="49"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f>EDATE(A288,1)</f>
         <v>40087</v>
@@ -10278,7 +10280,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>75</v>
@@ -10300,7 +10302,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>166</v>
@@ -10320,7 +10322,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A290,1)</f>
         <v>40118</v>
@@ -10347,7 +10349,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>75</v>
@@ -10369,7 +10371,7 @@
         <v>40130</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>168</v>
@@ -10389,7 +10391,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f>EDATE(A293,1)</f>
         <v>40148</v>
@@ -10416,7 +10418,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>170</v>
@@ -10436,7 +10438,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="48" t="s">
         <v>59</v>
       </c>
@@ -10454,7 +10456,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A296,1)</f>
         <v>40179</v>
@@ -10479,7 +10481,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="3"/>
         <v>40210</v>
@@ -10506,7 +10508,7 @@
         <v>40214</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>132</v>
@@ -10528,7 +10530,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>81</v>
@@ -10548,7 +10550,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>177</v>
@@ -10568,7 +10570,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A300,1)</f>
         <v>40238</v>
@@ -10593,7 +10595,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="3"/>
         <v>40269</v>
@@ -10620,7 +10622,7 @@
         <v>40276</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>74</v>
@@ -10642,7 +10644,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>181</v>
@@ -10662,7 +10664,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f>EDATE(A305,1)</f>
         <v>40299</v>
@@ -10687,7 +10689,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="3"/>
         <v>40330</v>
@@ -10714,7 +10716,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>185</v>
@@ -10734,7 +10736,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f>EDATE(A309,1)</f>
         <v>40360</v>
@@ -10761,7 +10763,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>75</v>
@@ -10783,7 +10785,7 @@
         <v>40382</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>187</v>
@@ -10803,7 +10805,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f>EDATE(A311,1)</f>
         <v>40391</v>
@@ -10830,7 +10832,7 @@
         <v>40408</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>188</v>
@@ -10850,7 +10852,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A314,1)</f>
         <v>40422</v>
@@ -10877,7 +10879,7 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>81</v>
@@ -10897,7 +10899,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>171</v>
@@ -10917,7 +10919,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="49"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f>EDATE(A316,1)</f>
         <v>40452</v>
@@ -10944,7 +10946,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>75</v>
@@ -10966,7 +10968,7 @@
         <v>40480</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>180</v>
@@ -10986,7 +10988,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A319,1)</f>
         <v>40483</v>
@@ -11013,7 +11015,7 @@
         <v>40487</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>124</v>
@@ -11035,7 +11037,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>75</v>
@@ -11057,7 +11059,7 @@
         <v>40504</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>177</v>
@@ -11077,7 +11079,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f>EDATE(A322,1)</f>
         <v>40513</v>
@@ -11104,7 +11106,7 @@
         <v>40521</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>192</v>
@@ -11124,7 +11126,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="49"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>75</v>
@@ -11146,7 +11148,7 @@
         <v>40542</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="48" t="s">
         <v>60</v>
       </c>
@@ -11164,7 +11166,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f>EDATE(A326,1)</f>
         <v>40544</v>
@@ -11191,7 +11193,7 @@
         <v>40557</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>75</v>
@@ -11213,7 +11215,7 @@
         <v>40560</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>193</v>
@@ -11233,7 +11235,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A330,1)</f>
         <v>40575</v>
@@ -11260,7 +11262,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>75</v>
@@ -11282,7 +11284,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>194</v>
@@ -11302,7 +11304,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f>EDATE(A333,1)</f>
         <v>40603</v>
@@ -11329,7 +11331,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f t="shared" si="3"/>
         <v>40634</v>
@@ -11356,7 +11358,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="3"/>
         <v>40664</v>
@@ -11381,7 +11383,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>75</v>
@@ -11403,7 +11405,7 @@
         <v>40676</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>91</v>
@@ -11423,7 +11425,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A338,1)</f>
         <v>40695</v>
@@ -11450,7 +11452,7 @@
         <v>40711</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>75</v>
@@ -11472,7 +11474,7 @@
         <v>40721</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>201</v>
@@ -11492,7 +11494,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f>EDATE(A341,1)</f>
         <v>40725</v>
@@ -11517,7 +11519,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -11544,7 +11546,7 @@
         <v>40771</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>75</v>
@@ -11566,7 +11568,7 @@
         <v>40778</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>204</v>
@@ -11586,7 +11588,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>40787</v>
@@ -11611,7 +11613,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="49"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="3"/>
         <v>40817</v>
@@ -11638,7 +11640,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>75</v>
@@ -11660,7 +11662,7 @@
         <v>40837</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>206</v>
@@ -11680,7 +11682,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="49"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f>EDATE(A349,1)</f>
         <v>40848</v>
@@ -11707,7 +11709,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>208</v>
@@ -11727,7 +11729,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="49"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>40878</v>
@@ -11754,7 +11756,7 @@
         <v>40897</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>209</v>
@@ -11774,7 +11776,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="48" t="s">
         <v>61</v>
       </c>
@@ -11792,7 +11794,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f>EDATE(A354,1)</f>
         <v>40909</v>
@@ -11819,7 +11821,7 @@
         <v>40927</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>210</v>
@@ -11839,7 +11841,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>40940</v>
@@ -11866,7 +11868,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>211</v>
@@ -11886,7 +11888,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="49"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A359,1)</f>
         <v>40969</v>
@@ -11911,7 +11913,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>111</v>
@@ -11931,7 +11933,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>41000</v>
@@ -11958,7 +11960,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>74</v>
@@ -11980,7 +11982,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>213</v>
@@ -12000,7 +12002,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A363,1)</f>
         <v>41030</v>
@@ -12027,7 +12029,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>185</v>
@@ -12047,7 +12049,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41061</v>
@@ -12072,7 +12074,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -12093,7 +12095,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f t="shared" si="3"/>
         <v>41122</v>
@@ -12120,7 +12122,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="3"/>
         <v>41153</v>
@@ -12141,7 +12143,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="3"/>
         <v>41183</v>
@@ -12162,7 +12164,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="49"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="3"/>
         <v>41214</v>
@@ -12183,7 +12185,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="49"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="3"/>
         <v>41244</v>
@@ -12208,7 +12210,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="48" t="s">
         <v>62</v>
       </c>
@@ -12226,7 +12228,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>41275</v>
@@ -12253,7 +12255,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f t="shared" si="3"/>
         <v>41306</v>
@@ -12280,7 +12282,7 @@
         <v>41309</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>162</v>
@@ -12302,7 +12304,7 @@
         <v>41316</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>81</v>
@@ -12322,7 +12324,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>220</v>
@@ -12342,7 +12344,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="49"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f>EDATE(A377,1)</f>
         <v>41334</v>
@@ -12367,7 +12369,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f t="shared" si="3"/>
         <v>41365</v>
@@ -12394,7 +12396,7 @@
         <v>41367</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>222</v>
@@ -12414,7 +12416,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="49"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f>EDATE(A382,1)</f>
         <v>41395</v>
@@ -12441,7 +12443,7 @@
         <v>41415</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>74</v>
@@ -12463,7 +12465,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>223</v>
@@ -12483,7 +12485,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f>EDATE(A384,1)</f>
         <v>41426</v>
@@ -12508,7 +12510,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="3"/>
         <v>41456</v>
@@ -12535,7 +12537,7 @@
         <v>41474</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>226</v>
@@ -12555,7 +12557,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="49"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f>EDATE(A388,1)</f>
         <v>41487</v>
@@ -12582,7 +12584,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>91</v>
@@ -12602,7 +12604,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="49"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f>EDATE(A390,1)</f>
         <v>41518</v>
@@ -12629,7 +12631,7 @@
         <v>41530</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>81</v>
@@ -12649,7 +12651,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>213</v>
@@ -12669,7 +12671,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A392,1)</f>
         <v>41548</v>
@@ -12696,7 +12698,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>213</v>
@@ -12716,7 +12718,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="49"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41579</v>
@@ -12741,7 +12743,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>73</v>
@@ -12763,7 +12765,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>228</v>
@@ -12783,7 +12785,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="49"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A397,1)</f>
         <v>41609</v>
@@ -12808,7 +12810,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="48" t="s">
         <v>63</v>
       </c>
@@ -12826,7 +12828,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41640</v>
@@ -12851,7 +12853,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="49"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A500" si="4">EDATE(A402,1)</f>
         <v>41671</v>
@@ -12878,7 +12880,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>234</v>
@@ -12898,7 +12900,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>41699</v>
@@ -12925,7 +12927,7 @@
         <v>41722</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>105</v>
@@ -12945,7 +12947,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="49"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>41730</v>
@@ -12972,7 +12974,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>203</v>
@@ -12992,7 +12994,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="49"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>41760</v>
@@ -13017,7 +13019,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="4"/>
         <v>41791</v>
@@ -13042,7 +13044,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="49"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" si="4"/>
         <v>41821</v>
@@ -13069,7 +13071,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>94</v>
@@ -13089,7 +13091,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>41852</v>
@@ -13114,7 +13116,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="49"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f t="shared" si="4"/>
         <v>41883</v>
@@ -13141,7 +13143,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>141</v>
@@ -13161,7 +13163,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>124</v>
@@ -13183,7 +13185,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>75</v>
@@ -13205,7 +13207,7 @@
         <v>41912</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>110</v>
@@ -13225,7 +13227,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="49"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A414,1)</f>
         <v>41913</v>
@@ -13252,7 +13254,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>243</v>
@@ -13272,7 +13274,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="49"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>41944</v>
@@ -13297,7 +13299,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="4"/>
         <v>41974</v>
@@ -13324,7 +13326,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>81</v>
@@ -13344,7 +13346,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>245</v>
@@ -13364,7 +13366,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="49"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="48" t="s">
         <v>64</v>
       </c>
@@ -13382,7 +13384,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="49"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f>EDATE(A422,1)</f>
         <v>42005</v>
@@ -13407,7 +13409,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="49"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f t="shared" si="4"/>
         <v>42036</v>
@@ -13434,7 +13436,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>162</v>
@@ -13456,7 +13458,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A427,1)</f>
         <v>42064</v>
@@ -13483,7 +13485,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>198</v>
@@ -13505,7 +13507,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>250</v>
@@ -13527,7 +13529,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>251</v>
@@ -13551,7 +13553,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f>EDATE(A429,1)</f>
         <v>42095</v>
@@ -13572,7 +13574,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f t="shared" si="4"/>
         <v>42125</v>
@@ -13597,7 +13599,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="49"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" si="4"/>
         <v>42156</v>
@@ -13618,7 +13620,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="49"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="4"/>
         <v>42186</v>
@@ -13645,7 +13647,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="4"/>
         <v>42217</v>
@@ -13672,7 +13674,7 @@
         <v>42233</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f t="shared" si="4"/>
         <v>42248</v>
@@ -13699,7 +13701,7 @@
         <v>42254</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>255</v>
@@ -13721,7 +13723,7 @@
       </c>
       <c r="K439" s="49"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f>EDATE(A438,1)</f>
         <v>42278</v>
@@ -13748,7 +13750,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>75</v>
@@ -13770,7 +13772,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>42309</v>
@@ -13797,7 +13799,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>256</v>
@@ -13819,7 +13821,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f>EDATE(A442,1)</f>
         <v>42339</v>
@@ -13846,7 +13848,7 @@
         <v>42352</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="48" t="s">
         <v>65</v>
       </c>
@@ -13864,7 +13866,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f>EDATE(A444,1)</f>
         <v>42370</v>
@@ -13889,7 +13891,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>81</v>
@@ -13909,7 +13911,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f>EDATE(A446,1)</f>
         <v>42401</v>
@@ -13936,7 +13938,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>81</v>
@@ -13956,7 +13958,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A448,1)</f>
         <v>42430</v>
@@ -13983,7 +13985,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" si="4"/>
         <v>42461</v>
@@ -14010,7 +14012,7 @@
         <v>42473</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>84</v>
@@ -14032,7 +14034,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>115</v>
@@ -14054,7 +14056,7 @@
         <v>42496</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A451,1)</f>
         <v>42491</v>
@@ -14081,7 +14083,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>75</v>
@@ -14103,7 +14105,7 @@
         <v>42514</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>42522</v>
@@ -14124,7 +14126,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f t="shared" si="4"/>
         <v>42552</v>
@@ -14151,7 +14153,7 @@
         <v>42576</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" si="4"/>
         <v>42583</v>
@@ -14178,7 +14180,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="4"/>
         <v>42614</v>
@@ -14205,7 +14207,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>134</v>
@@ -14227,7 +14229,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <f>EDATE(A459,1)</f>
         <v>42644</v>
@@ -14254,7 +14256,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f t="shared" si="4"/>
         <v>42675</v>
@@ -14281,7 +14283,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f t="shared" si="4"/>
         <v>42705</v>
@@ -14308,7 +14310,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>84</v>
@@ -14330,7 +14332,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="48" t="s">
         <v>66</v>
       </c>
@@ -14348,7 +14350,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f>EDATE(A463,1)</f>
         <v>42736</v>
@@ -14369,7 +14371,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="49"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="4"/>
         <v>42767</v>
@@ -14390,7 +14392,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="49"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f t="shared" si="4"/>
         <v>42795</v>
@@ -14415,7 +14417,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -14440,7 +14442,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="4"/>
         <v>42856</v>
@@ -14461,7 +14463,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="49"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f t="shared" si="4"/>
         <v>42887</v>
@@ -14482,7 +14484,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="49"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -14503,7 +14505,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f t="shared" si="4"/>
         <v>42948</v>
@@ -14524,7 +14526,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="49"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f t="shared" si="4"/>
         <v>42979</v>
@@ -14549,7 +14551,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>275</v>
@@ -14569,7 +14571,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>75</v>
@@ -14591,7 +14593,7 @@
         <v>43017</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f>EDATE(A474,1)</f>
         <v>43009</v>
@@ -14612,7 +14614,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <f t="shared" si="4"/>
         <v>43040</v>
@@ -14639,7 +14641,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>115</v>
@@ -14661,7 +14663,7 @@
         <v>43038</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>75</v>
@@ -14683,7 +14685,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>75</v>
@@ -14705,7 +14707,7 @@
         <v>43063</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f>EDATE(A478,1)</f>
         <v>43070</v>
@@ -14732,7 +14734,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>124</v>
@@ -14752,7 +14754,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="49"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="48" t="s">
         <v>67</v>
       </c>
@@ -14770,7 +14772,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="49"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f>EDATE(A482,1)</f>
         <v>43101</v>
@@ -14795,7 +14797,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>81</v>
@@ -14815,7 +14817,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>81</v>
@@ -14835,7 +14837,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f>EDATE(A485,1)</f>
         <v>43132</v>
@@ -14856,7 +14858,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="49"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="4"/>
         <v>43160</v>
@@ -14883,7 +14885,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="4"/>
         <v>43191</v>
@@ -14910,7 +14912,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>75</v>
@@ -14932,7 +14934,7 @@
         <v>43216</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>75</v>
@@ -14954,7 +14956,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f>EDATE(A490,1)</f>
         <v>43221</v>
@@ -14975,7 +14977,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f t="shared" si="4"/>
         <v>43252</v>
@@ -15002,7 +15004,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f t="shared" si="4"/>
         <v>43282</v>
@@ -15023,7 +15025,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="49"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" si="4"/>
         <v>43313</v>
@@ -15050,7 +15052,7 @@
         <v>43322</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>84</v>
@@ -15072,7 +15074,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f>EDATE(A496,1)</f>
         <v>43344</v>
@@ -15093,7 +15095,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f t="shared" si="4"/>
         <v>43374</v>
@@ -15120,7 +15122,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f t="shared" si="4"/>
         <v>43405</v>
@@ -15141,7 +15143,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" ref="A501:A579" si="5">EDATE(A500,1)</f>
         <v>43435</v>
@@ -15168,7 +15170,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>115</v>
@@ -15190,7 +15192,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>162</v>
@@ -15210,7 +15212,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="48" t="s">
         <v>68</v>
       </c>
@@ -15228,7 +15230,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A501,1)</f>
         <v>43466</v>
@@ -15253,7 +15255,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <f t="shared" si="5"/>
         <v>43497</v>
@@ -15280,7 +15282,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f t="shared" si="5"/>
         <v>43525</v>
@@ -15307,7 +15309,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>75</v>
@@ -15329,7 +15331,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f>EDATE(A507,1)</f>
         <v>43556</v>
@@ -15354,7 +15356,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f t="shared" si="5"/>
         <v>43586</v>
@@ -15381,7 +15383,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>75</v>
@@ -15403,7 +15405,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f>EDATE(A510,1)</f>
         <v>43617</v>
@@ -15428,7 +15430,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>75</v>
@@ -15450,7 +15452,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <f>EDATE(A512,1)</f>
         <v>43647</v>
@@ -15477,7 +15479,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <f t="shared" si="5"/>
         <v>43678</v>
@@ -15498,7 +15500,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f t="shared" si="5"/>
         <v>43709</v>
@@ -15525,7 +15527,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>115</v>
@@ -15547,7 +15549,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f>EDATE(A516,1)</f>
         <v>43739</v>
@@ -15574,7 +15576,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>134</v>
@@ -15596,7 +15598,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>43770</v>
@@ -15623,7 +15625,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>75</v>
@@ -15645,7 +15647,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>43800</v>
@@ -15672,7 +15674,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="48" t="s">
         <v>69</v>
       </c>
@@ -15690,7 +15692,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f>EDATE(A522,1)</f>
         <v>43831</v>
@@ -15715,7 +15717,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>290</v>
@@ -15735,7 +15737,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f>EDATE(A524,1)</f>
         <v>43862</v>
@@ -15762,7 +15764,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>75</v>
@@ -15784,7 +15786,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>81</v>
@@ -15804,7 +15806,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <f>EDATE(A526,1)</f>
         <v>43891</v>
@@ -15825,7 +15827,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <f t="shared" si="5"/>
         <v>43922</v>
@@ -15846,7 +15848,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f t="shared" si="5"/>
         <v>43952</v>
@@ -15867,7 +15869,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="49"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f t="shared" si="5"/>
         <v>43983</v>
@@ -15888,7 +15890,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <f t="shared" si="5"/>
         <v>44013</v>
@@ -15909,7 +15911,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <f t="shared" si="5"/>
         <v>44044</v>
@@ -15930,7 +15932,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <f t="shared" si="5"/>
         <v>44075</v>
@@ -15951,7 +15953,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="49"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <f t="shared" si="5"/>
         <v>44105</v>
@@ -15972,7 +15974,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f t="shared" si="5"/>
         <v>44136</v>
@@ -15993,7 +15995,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="49"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <f t="shared" si="5"/>
         <v>44166</v>
@@ -16020,7 +16022,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>84</v>
@@ -16042,7 +16044,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="48" t="s">
         <v>70</v>
       </c>
@@ -16060,7 +16062,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="49"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f>EDATE(A538,1)</f>
         <v>44197</v>
@@ -16081,7 +16083,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f t="shared" si="5"/>
         <v>44228</v>
@@ -16106,7 +16108,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <f t="shared" si="5"/>
         <v>44256</v>
@@ -16127,7 +16129,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f t="shared" si="5"/>
         <v>44287</v>
@@ -16148,7 +16150,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f t="shared" si="5"/>
         <v>44317</v>
@@ -16169,7 +16171,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="5"/>
         <v>44348</v>
@@ -16190,7 +16192,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <f t="shared" si="5"/>
         <v>44378</v>
@@ -16215,7 +16217,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <f t="shared" si="5"/>
         <v>44409</v>
@@ -16236,7 +16238,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <f t="shared" si="5"/>
         <v>44440</v>
@@ -16263,7 +16265,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f t="shared" si="5"/>
         <v>44470</v>
@@ -16290,7 +16292,7 @@
         <v>44503</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>115</v>
@@ -16312,7 +16314,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <f>EDATE(A550,1)</f>
         <v>44501</v>
@@ -16333,7 +16335,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f t="shared" si="5"/>
         <v>44531</v>
@@ -16360,7 +16362,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="48" t="s">
         <v>71</v>
       </c>
@@ -16378,7 +16380,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <f>EDATE(A553,1)</f>
         <v>44562</v>
@@ -16399,7 +16401,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <f t="shared" si="5"/>
         <v>44593</v>
@@ -16420,7 +16422,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f t="shared" si="5"/>
         <v>44621</v>
@@ -16445,7 +16447,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>313</v>
@@ -16465,7 +16467,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <f>EDATE(A557,1)</f>
         <v>44652</v>
@@ -16492,7 +16494,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f t="shared" si="5"/>
         <v>44682</v>
@@ -16519,7 +16521,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>310</v>
@@ -16539,7 +16541,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="49"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <f>EDATE(A560,1)</f>
         <v>44713</v>
@@ -16564,7 +16566,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <f t="shared" si="5"/>
         <v>44743</v>
@@ -16589,7 +16591,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <f t="shared" si="5"/>
         <v>44774</v>
@@ -16616,7 +16618,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>307</v>
@@ -16636,7 +16638,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="49"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f>EDATE(A564,1)</f>
         <v>44805</v>
@@ -16661,7 +16663,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <f t="shared" si="5"/>
         <v>44835</v>
@@ -16686,7 +16688,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <f t="shared" si="5"/>
         <v>44866</v>
@@ -16713,7 +16715,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>306</v>
@@ -16733,7 +16735,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="49"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <f>EDATE(A568,1)</f>
         <v>44896</v>
@@ -16760,7 +16762,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>162</v>
@@ -16780,7 +16782,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>98</v>
@@ -16800,7 +16802,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="48" t="s">
         <v>72</v>
       </c>
@@ -16818,7 +16820,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <f>EDATE(A570,1)</f>
         <v>44927</v>
@@ -16839,7 +16841,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <f t="shared" si="5"/>
         <v>44958</v>
@@ -16860,7 +16862,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f t="shared" si="5"/>
         <v>44986</v>
@@ -16885,7 +16887,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>81</v>
@@ -16905,7 +16907,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <f>EDATE(A576,1)</f>
         <v>45017</v>
@@ -16932,7 +16934,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <f t="shared" si="5"/>
         <v>45047</v>
@@ -16953,7 +16955,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>45078</v>
       </c>
@@ -16979,7 +16981,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>45108</v>
       </c>
@@ -17005,7 +17007,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>45139</v>
       </c>
@@ -17031,7 +17033,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>315</v>
@@ -17053,7 +17055,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>75</v>
@@ -17075,7 +17077,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>45170</v>
       </c>
@@ -17101,7 +17103,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>115</v>
@@ -17123,7 +17125,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>45200</v>
       </c>
@@ -17149,7 +17151,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>45231</v>
       </c>
@@ -17175,22 +17177,24 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>45261</v>
       </c>
       <c r="B589" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C589" s="13"/>
+      <c r="C589" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D589" s="39">
         <v>1</v>
       </c>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G589" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
@@ -17199,7 +17203,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>162</v>
@@ -17221,9 +17225,9 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A591" s="40">
-        <v>45292</v>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="48" t="s">
+        <v>318</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17237,13 +17241,15 @@
       <c r="H591" s="39"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="20"/>
-    </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K591" s="49"/>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B592" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B592" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C592" s="13"/>
       <c r="D592" s="39"/>
       <c r="E592" s="9"/>
@@ -17255,11 +17261,13 @@
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20"/>
-    </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K592" s="49">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17275,9 +17283,9 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17293,9 +17301,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17311,9 +17319,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17329,9 +17337,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17347,9 +17355,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17365,9 +17373,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17383,9 +17391,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17401,9 +17409,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17419,9 +17427,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17437,9 +17445,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17455,9 +17463,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17473,9 +17481,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17491,9 +17499,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17509,9 +17517,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17527,9 +17535,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17545,8 +17553,10 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A609" s="40"/>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" s="40">
+        <v>45809</v>
+      </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
       <c r="D609" s="39"/>
@@ -17561,7 +17571,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17577,7 +17587,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17593,7 +17603,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17609,7 +17619,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17625,7 +17635,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17641,7 +17651,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17657,7 +17667,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17673,7 +17683,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17689,7 +17699,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17705,7 +17715,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17721,7 +17731,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17737,8 +17747,8 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A621" s="48"/>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
       <c r="D621" s="39"/>
@@ -17753,8 +17763,8 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A622" s="40"/>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622" s="48"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
       <c r="D622" s="39"/>
@@ -17769,7 +17779,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17785,7 +17795,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17801,7 +17811,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17817,7 +17827,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17833,7 +17843,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17849,7 +17859,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17865,7 +17875,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17881,7 +17891,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17897,7 +17907,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17913,7 +17923,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17929,7 +17939,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17945,8 +17955,8 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A634" s="48"/>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
       <c r="D634" s="39"/>
@@ -17961,8 +17971,8 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A635" s="40"/>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" s="48"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
       <c r="D635" s="39"/>
@@ -17977,7 +17987,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17993,7 +18003,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18009,7 +18019,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18025,7 +18035,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18041,7 +18051,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18057,7 +18067,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18073,7 +18083,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18089,7 +18099,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18105,7 +18115,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18121,7 +18131,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18137,7 +18147,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18153,7 +18163,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18169,7 +18179,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18185,7 +18195,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18201,7 +18211,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18217,7 +18227,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18233,7 +18243,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18249,7 +18259,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18265,7 +18275,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18281,7 +18291,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18297,7 +18307,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18313,7 +18323,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18329,7 +18339,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18345,7 +18355,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18361,7 +18371,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18377,7 +18387,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18393,20 +18403,23 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
       <c r="D662" s="39"/>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
-      <c r="G662" s="13"/>
+      <c r="G662" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H662" s="39"/>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18419,7 +18432,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18432,7 +18445,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18445,7 +18458,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18458,7 +18471,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18471,7 +18484,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18484,7 +18497,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18497,7 +18510,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18510,7 +18523,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18523,7 +18536,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18536,7 +18549,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18549,7 +18562,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18562,7 +18575,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18575,7 +18588,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18588,7 +18601,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18601,7 +18614,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18614,7 +18627,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18627,7 +18640,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18640,7 +18653,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18653,7 +18666,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18666,7 +18679,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18679,7 +18692,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18692,7 +18705,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18705,7 +18718,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18718,7 +18731,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18731,7 +18744,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18744,7 +18757,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18757,7 +18770,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18770,7 +18783,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18783,7 +18796,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18796,23 +18809,20 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
       <c r="D693" s="39"/>
       <c r="E693" s="9"/>
       <c r="F693" s="20"/>
-      <c r="G693" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G693" s="13"/>
       <c r="H693" s="39"/>
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18828,7 +18838,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18844,7 +18854,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18860,7 +18870,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18876,7 +18886,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18892,7 +18902,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18908,7 +18918,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18924,7 +18934,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18940,21 +18950,37 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A702" s="41"/>
-      <c r="B702" s="15"/>
-      <c r="C702" s="42"/>
-      <c r="D702" s="43"/>
-      <c r="E702" s="51"/>
-      <c r="F702" s="15"/>
-      <c r="G702" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H702" s="43"/>
-      <c r="I702" s="51"/>
-      <c r="J702" s="12"/>
-      <c r="K702" s="15"/>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A702" s="40"/>
+      <c r="B702" s="20"/>
+      <c r="C702" s="13"/>
+      <c r="D702" s="39"/>
+      <c r="E702" s="9"/>
+      <c r="F702" s="20"/>
+      <c r="G702" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H702" s="39"/>
+      <c r="I702" s="9"/>
+      <c r="J702" s="11"/>
+      <c r="K702" s="20"/>
+    </row>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A703" s="41"/>
+      <c r="B703" s="15"/>
+      <c r="C703" s="42"/>
+      <c r="D703" s="43"/>
+      <c r="E703" s="51"/>
+      <c r="F703" s="15"/>
+      <c r="G703" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H703" s="43"/>
+      <c r="I703" s="51"/>
+      <c r="J703" s="12"/>
+      <c r="K703" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18971,10 +18997,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18997,7 +19023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19005,21 +19031,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
@@ -19032,7 +19058,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19061,7 +19087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -19085,17 +19111,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>302</v>
       </c>
@@ -19119,10 +19145,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>281.68599999999998</v>
+        <v>284.18599999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -19150,7 +19176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19176,7 +19202,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19202,7 +19228,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19228,7 +19254,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19254,7 +19280,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19280,7 +19306,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19306,7 +19332,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19332,7 +19358,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19352,7 +19378,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19372,7 +19398,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19392,7 +19418,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19413,7 +19439,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19434,7 +19460,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19455,7 +19481,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19476,7 +19502,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19497,7 +19523,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19518,7 +19544,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19539,7 +19565,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19560,7 +19586,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19581,7 +19607,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19602,7 +19628,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19623,7 +19649,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19644,7 +19670,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19665,7 +19691,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19686,7 +19712,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19707,7 +19733,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19728,7 +19754,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19749,7 +19775,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19770,7 +19796,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19791,7 +19817,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19812,7 +19838,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19821,7 +19847,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19830,7 +19856,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19839,7 +19865,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19848,7 +19874,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19857,7 +19883,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19866,7 +19892,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19875,7 +19901,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19884,7 +19910,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19893,7 +19919,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19902,7 +19928,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19911,7 +19937,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19920,7 +19946,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19929,7 +19955,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19938,7 +19964,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19947,7 +19973,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19956,7 +19982,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19965,7 +19991,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19974,7 +20000,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19983,7 +20009,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19992,7 +20018,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20001,7 +20027,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20010,7 +20036,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20019,7 +20045,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20028,7 +20054,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20037,7 +20063,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20046,7 +20072,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20055,7 +20081,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20064,7 +20090,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20073,7 +20099,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/MALUBAY, MELINDA.xlsx
+++ b/REGULAR/CTO/MALUBAY, MELINDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="323">
   <si>
     <t>PERIOD</t>
   </si>
@@ -991,6 +991,18 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-4-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-23)</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -3406,7 +3418,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K703" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K710" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3784,12 +3796,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K703"/>
+  <dimension ref="A2:K710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A582" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A576" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K592" sqref="K592"/>
+      <selection pane="bottomLeft" activeCell="E587" sqref="E587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,7 +3966,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.56</v>
+        <v>196.48399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3964,7 +3976,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>85.625999999999976</v>
+        <v>86.625999999999976</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17008,209 +17020,193 @@
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C582" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D582" s="39"/>
+        <v>322</v>
+      </c>
+      <c r="C582" s="13"/>
+      <c r="D582" s="39">
+        <v>1</v>
+      </c>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H582" s="39">
-        <v>10</v>
-      </c>
+      <c r="G582" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H582" s="39"/>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="20" t="s">
-        <v>314</v>
+      <c r="K582" s="49">
+        <v>45138</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="C583" s="13"/>
-      <c r="D583" s="39"/>
+      <c r="D583" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
       <c r="G583" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H583" s="39">
-        <v>9</v>
-      </c>
+      <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="20" t="s">
-        <v>316</v>
-      </c>
+      <c r="K583" s="49"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40"/>
+      <c r="A584" s="40">
+        <v>45139</v>
+      </c>
       <c r="B584" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C584" s="13"/>
+        <v>315</v>
+      </c>
+      <c r="C584" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D584" s="39"/>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G584" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H584" s="39">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="49">
-        <v>45163</v>
+      <c r="K584" s="20" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C585" s="13">
-        <v>1.25</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C585" s="13"/>
       <c r="D585" s="39"/>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
-      <c r="G585" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G585" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H585" s="39">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
       <c r="K585" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C586" s="13"/>
-      <c r="D586" s="39">
-        <v>1</v>
-      </c>
+      <c r="D586" s="39"/>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
       <c r="G586" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H586" s="39"/>
+      <c r="H586" s="39">
+        <v>1</v>
+      </c>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
       <c r="K586" s="49">
-        <v>45191</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C587" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D587" s="39"/>
+        <v>91</v>
+      </c>
+      <c r="C587" s="13"/>
+      <c r="D587" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H587" s="39">
-        <v>1</v>
-      </c>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="49">
-        <v>45205</v>
-      </c>
+      <c r="K587" s="49"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B588" s="20" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="C588" s="13">
         <v>1.25</v>
       </c>
-      <c r="D588" s="39">
-        <v>1</v>
-      </c>
+      <c r="D588" s="39"/>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
       <c r="G588" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H588" s="39"/>
+      <c r="H588" s="39">
+        <v>5</v>
+      </c>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="49">
-        <v>45233</v>
+      <c r="K588" s="20" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A589" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C589" s="13">
-        <v>1.25</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C589" s="13"/>
       <c r="D589" s="39">
         <v>1</v>
       </c>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G589" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
       <c r="K589" s="49">
-        <v>45282</v>
+        <v>45191</v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
-        <v>162</v>
+        <v>321</v>
       </c>
       <c r="C590" s="13"/>
       <c r="D590" s="39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
@@ -17221,37 +17217,43 @@
       <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="49">
-        <v>45289</v>
-      </c>
+      <c r="K590" s="49"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="B591" s="20"/>
-      <c r="C591" s="13"/>
+      <c r="A591" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B591" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C591" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D591" s="39"/>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
-      <c r="G591" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H591" s="39"/>
+      <c r="G591" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H591" s="39">
+        <v>1</v>
+      </c>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="49"/>
+      <c r="K591" s="49">
+        <v>45205</v>
+      </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="C592" s="13"/>
-      <c r="D592" s="39"/>
+      <c r="D592" s="39">
+        <v>4.8000000000000008E-2</v>
+      </c>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
       <c r="G592" s="13" t="str">
@@ -17261,35 +17263,43 @@
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="49">
-        <v>45306</v>
-      </c>
+      <c r="K592" s="49"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B593" s="20"/>
-      <c r="C593" s="13"/>
-      <c r="D593" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B593" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C593" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D593" s="39">
+        <v>1</v>
+      </c>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
-      <c r="G593" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G593" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H593" s="39"/>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="20"/>
+      <c r="K593" s="49">
+        <v>45233</v>
+      </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A594" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B594" s="20"/>
+      <c r="A594" s="40"/>
+      <c r="B594" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C594" s="13"/>
-      <c r="D594" s="39"/>
+      <c r="D594" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
       <c r="G594" s="13" t="str">
@@ -17299,33 +17309,43 @@
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="20"/>
+      <c r="K594" s="49"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B595" s="20"/>
-      <c r="C595" s="13"/>
-      <c r="D595" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B595" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C595" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D595" s="39">
+        <v>1</v>
+      </c>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G595" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="20"/>
+      <c r="K595" s="49">
+        <v>45282</v>
+      </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A596" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B596" s="20"/>
+      <c r="A596" s="40"/>
+      <c r="B596" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="C596" s="13"/>
-      <c r="D596" s="39"/>
+      <c r="D596" s="39">
+        <v>1</v>
+      </c>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
       <c r="G596" s="13" t="str">
@@ -17335,15 +17355,19 @@
       <c r="H596" s="39"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="20"/>
+      <c r="K596" s="49">
+        <v>45289</v>
+      </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B597" s="20"/>
+      <c r="A597" s="40"/>
+      <c r="B597" s="20" t="s">
+        <v>319</v>
+      </c>
       <c r="C597" s="13"/>
-      <c r="D597" s="39"/>
+      <c r="D597" s="39">
+        <v>0.504</v>
+      </c>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
       <c r="G597" s="13" t="str">
@@ -17353,11 +17377,11 @@
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20"/>
+      <c r="K597" s="49"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="40">
-        <v>45474</v>
+      <c r="A598" s="48" t="s">
+        <v>318</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17371,13 +17395,15 @@
       <c r="H598" s="39"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="20"/>
+      <c r="K598" s="49"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B599" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B599" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C599" s="13"/>
       <c r="D599" s="39"/>
       <c r="E599" s="9"/>
@@ -17389,11 +17415,13 @@
       <c r="H599" s="39"/>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="20"/>
+      <c r="K599" s="49">
+        <v>45306</v>
+      </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45536</v>
+        <v>45323</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17411,7 +17439,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45566</v>
+        <v>45352</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17429,7 +17457,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45597</v>
+        <v>45383</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17447,7 +17475,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45627</v>
+        <v>45413</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17465,7 +17493,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45658</v>
+        <v>45444</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17483,7 +17511,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45689</v>
+        <v>45474</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17501,7 +17529,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45717</v>
+        <v>45505</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17519,7 +17547,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45748</v>
+        <v>45536</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17537,7 +17565,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45778</v>
+        <v>45566</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17555,7 +17583,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45809</v>
+        <v>45597</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17572,7 +17600,9 @@
       <c r="K609" s="20"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A610" s="40"/>
+      <c r="A610" s="40">
+        <v>45627</v>
+      </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
       <c r="D610" s="39"/>
@@ -17588,7 +17618,9 @@
       <c r="K610" s="20"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A611" s="40"/>
+      <c r="A611" s="40">
+        <v>45658</v>
+      </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
       <c r="D611" s="39"/>
@@ -17604,7 +17636,9 @@
       <c r="K611" s="20"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A612" s="40"/>
+      <c r="A612" s="40">
+        <v>45689</v>
+      </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
       <c r="D612" s="39"/>
@@ -17620,7 +17654,9 @@
       <c r="K612" s="20"/>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A613" s="40"/>
+      <c r="A613" s="40">
+        <v>45717</v>
+      </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
       <c r="D613" s="39"/>
@@ -17636,7 +17672,9 @@
       <c r="K613" s="20"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" s="40"/>
+      <c r="A614" s="40">
+        <v>45748</v>
+      </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
       <c r="D614" s="39"/>
@@ -17652,7 +17690,9 @@
       <c r="K614" s="20"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" s="40"/>
+      <c r="A615" s="40">
+        <v>45778</v>
+      </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
       <c r="D615" s="39"/>
@@ -17668,7 +17708,9 @@
       <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" s="40"/>
+      <c r="A616" s="40">
+        <v>45809</v>
+      </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
       <c r="D616" s="39"/>
@@ -17764,7 +17806,7 @@
       <c r="K621" s="20"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A622" s="48"/>
+      <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
       <c r="D622" s="39"/>
@@ -17876,7 +17918,7 @@
       <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="40"/>
+      <c r="A629" s="48"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
       <c r="D629" s="39"/>
@@ -17972,7 +18014,7 @@
       <c r="K634" s="20"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="48"/>
+      <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
       <c r="D635" s="39"/>
@@ -18084,7 +18126,7 @@
       <c r="K641" s="20"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" s="40"/>
+      <c r="A642" s="48"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
       <c r="D642" s="39"/>
@@ -18426,7 +18468,10 @@
       <c r="D663" s="39"/>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13"/>
+      <c r="G663" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H663" s="39"/>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
@@ -18439,7 +18484,10 @@
       <c r="D664" s="39"/>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13"/>
+      <c r="G664" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H664" s="39"/>
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
@@ -18452,7 +18500,10 @@
       <c r="D665" s="39"/>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
-      <c r="G665" s="13"/>
+      <c r="G665" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H665" s="39"/>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
@@ -18465,7 +18516,10 @@
       <c r="D666" s="39"/>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="13"/>
+      <c r="G666" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H666" s="39"/>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
@@ -18478,7 +18532,10 @@
       <c r="D667" s="39"/>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
-      <c r="G667" s="13"/>
+      <c r="G667" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H667" s="39"/>
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
@@ -18491,7 +18548,10 @@
       <c r="D668" s="39"/>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13"/>
+      <c r="G668" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H668" s="39"/>
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
@@ -18504,7 +18564,10 @@
       <c r="D669" s="39"/>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13"/>
+      <c r="G669" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H669" s="39"/>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
@@ -18829,10 +18892,7 @@
       <c r="D694" s="39"/>
       <c r="E694" s="9"/>
       <c r="F694" s="20"/>
-      <c r="G694" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G694" s="13"/>
       <c r="H694" s="39"/>
       <c r="I694" s="9"/>
       <c r="J694" s="11"/>
@@ -18845,10 +18905,7 @@
       <c r="D695" s="39"/>
       <c r="E695" s="9"/>
       <c r="F695" s="20"/>
-      <c r="G695" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G695" s="13"/>
       <c r="H695" s="39"/>
       <c r="I695" s="9"/>
       <c r="J695" s="11"/>
@@ -18861,10 +18918,7 @@
       <c r="D696" s="39"/>
       <c r="E696" s="9"/>
       <c r="F696" s="20"/>
-      <c r="G696" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G696" s="13"/>
       <c r="H696" s="39"/>
       <c r="I696" s="9"/>
       <c r="J696" s="11"/>
@@ -18877,10 +18931,7 @@
       <c r="D697" s="39"/>
       <c r="E697" s="9"/>
       <c r="F697" s="20"/>
-      <c r="G697" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G697" s="13"/>
       <c r="H697" s="39"/>
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
@@ -18893,10 +18944,7 @@
       <c r="D698" s="39"/>
       <c r="E698" s="9"/>
       <c r="F698" s="20"/>
-      <c r="G698" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G698" s="13"/>
       <c r="H698" s="39"/>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
@@ -18909,10 +18957,7 @@
       <c r="D699" s="39"/>
       <c r="E699" s="9"/>
       <c r="F699" s="20"/>
-      <c r="G699" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G699" s="13"/>
       <c r="H699" s="39"/>
       <c r="I699" s="9"/>
       <c r="J699" s="11"/>
@@ -18925,10 +18970,7 @@
       <c r="D700" s="39"/>
       <c r="E700" s="9"/>
       <c r="F700" s="20"/>
-      <c r="G700" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G700" s="13"/>
       <c r="H700" s="39"/>
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
@@ -18967,20 +19009,132 @@
       <c r="K702" s="20"/>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A703" s="41"/>
-      <c r="B703" s="15"/>
-      <c r="C703" s="42"/>
-      <c r="D703" s="43"/>
-      <c r="E703" s="51"/>
-      <c r="F703" s="15"/>
-      <c r="G703" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H703" s="43"/>
-      <c r="I703" s="51"/>
-      <c r="J703" s="12"/>
-      <c r="K703" s="15"/>
+      <c r="A703" s="40"/>
+      <c r="B703" s="20"/>
+      <c r="C703" s="13"/>
+      <c r="D703" s="39"/>
+      <c r="E703" s="9"/>
+      <c r="F703" s="20"/>
+      <c r="G703" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H703" s="39"/>
+      <c r="I703" s="9"/>
+      <c r="J703" s="11"/>
+      <c r="K703" s="20"/>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A704" s="40"/>
+      <c r="B704" s="20"/>
+      <c r="C704" s="13"/>
+      <c r="D704" s="39"/>
+      <c r="E704" s="9"/>
+      <c r="F704" s="20"/>
+      <c r="G704" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H704" s="39"/>
+      <c r="I704" s="9"/>
+      <c r="J704" s="11"/>
+      <c r="K704" s="20"/>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A705" s="40"/>
+      <c r="B705" s="20"/>
+      <c r="C705" s="13"/>
+      <c r="D705" s="39"/>
+      <c r="E705" s="9"/>
+      <c r="F705" s="20"/>
+      <c r="G705" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H705" s="39"/>
+      <c r="I705" s="9"/>
+      <c r="J705" s="11"/>
+      <c r="K705" s="20"/>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A706" s="40"/>
+      <c r="B706" s="20"/>
+      <c r="C706" s="13"/>
+      <c r="D706" s="39"/>
+      <c r="E706" s="9"/>
+      <c r="F706" s="20"/>
+      <c r="G706" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H706" s="39"/>
+      <c r="I706" s="9"/>
+      <c r="J706" s="11"/>
+      <c r="K706" s="20"/>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A707" s="40"/>
+      <c r="B707" s="20"/>
+      <c r="C707" s="13"/>
+      <c r="D707" s="39"/>
+      <c r="E707" s="9"/>
+      <c r="F707" s="20"/>
+      <c r="G707" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H707" s="39"/>
+      <c r="I707" s="9"/>
+      <c r="J707" s="11"/>
+      <c r="K707" s="20"/>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A708" s="40"/>
+      <c r="B708" s="20"/>
+      <c r="C708" s="13"/>
+      <c r="D708" s="39"/>
+      <c r="E708" s="9"/>
+      <c r="F708" s="20"/>
+      <c r="G708" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H708" s="39"/>
+      <c r="I708" s="9"/>
+      <c r="J708" s="11"/>
+      <c r="K708" s="20"/>
+    </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A709" s="40"/>
+      <c r="B709" s="20"/>
+      <c r="C709" s="13"/>
+      <c r="D709" s="39"/>
+      <c r="E709" s="9"/>
+      <c r="F709" s="20"/>
+      <c r="G709" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H709" s="39"/>
+      <c r="I709" s="9"/>
+      <c r="J709" s="11"/>
+      <c r="K709" s="20"/>
+    </row>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A710" s="41"/>
+      <c r="B710" s="15"/>
+      <c r="C710" s="42"/>
+      <c r="D710" s="43"/>
+      <c r="E710" s="51"/>
+      <c r="F710" s="15"/>
+      <c r="G710" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H710" s="43"/>
+      <c r="I710" s="51"/>
+      <c r="J710" s="12"/>
+      <c r="K710" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19091,15 +19245,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>9.6000000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -19148,7 +19300,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>284.18599999999998</v>
+        <v>283.10999999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/MALUBAY, MELINDA.xlsx
+++ b/REGULAR/CTO/MALUBAY, MELINDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="325">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1003,6 +1003,12 @@
   </si>
   <si>
     <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-4-17)</t>
+  </si>
+  <si>
+    <t>UT(0-4-11)</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1889,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1932,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1996,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,7 +2056,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,7 +2122,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2185,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2277,7 +2283,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2342,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2407,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2450,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2525,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2711,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2777,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2835,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,7 +2901,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2957,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,7 +3032,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3069,7 +3075,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3135,7 +3141,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3191,7 +3197,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3289,7 +3295,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3352,7 +3358,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,7 +3424,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K710" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3796,12 +3802,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K710"/>
+  <dimension ref="A2:K712"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A576" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A570" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E587" sqref="E587"/>
+      <selection pane="bottomLeft" activeCell="E579" sqref="E579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3966,7 +3972,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>196.48399999999998</v>
+        <v>195.38299999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -15157,7 +15163,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <f t="shared" ref="A501:A579" si="5">EDATE(A500,1)</f>
+        <f t="shared" ref="A501:A580" si="5">EDATE(A500,1)</f>
         <v>43435</v>
       </c>
       <c r="B501" s="20" t="s">
@@ -16837,11 +16843,15 @@
         <f>EDATE(A570,1)</f>
         <v>44927</v>
       </c>
-      <c r="B574" s="20"/>
+      <c r="B574" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C574" s="13">
         <v>1.25</v>
       </c>
-      <c r="D574" s="39"/>
+      <c r="D574" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
       <c r="G574" s="13">
@@ -16858,11 +16868,15 @@
         <f t="shared" si="5"/>
         <v>44958</v>
       </c>
-      <c r="B575" s="20"/>
+      <c r="B575" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="C575" s="13">
         <v>1.25</v>
       </c>
-      <c r="D575" s="39"/>
+      <c r="D575" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
       <c r="G575" s="13">
@@ -16920,38 +16934,33 @@
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40">
+      <c r="A578" s="40"/>
+      <c r="B578" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C578" s="13"/>
+      <c r="D578" s="39">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="E578" s="9"/>
+      <c r="F578" s="20"/>
+      <c r="G578" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H578" s="39"/>
+      <c r="I578" s="9"/>
+      <c r="J578" s="11"/>
+      <c r="K578" s="49"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579" s="40">
         <f>EDATE(A576,1)</f>
         <v>45017</v>
       </c>
-      <c r="B578" s="20" t="s">
+      <c r="B579" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C578" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D578" s="39"/>
-      <c r="E578" s="9"/>
-      <c r="F578" s="20"/>
-      <c r="G578" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H578" s="39">
-        <v>1</v>
-      </c>
-      <c r="I578" s="9"/>
-      <c r="J578" s="11"/>
-      <c r="K578" s="49">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40">
-        <f t="shared" si="5"/>
-        <v>45047</v>
-      </c>
-      <c r="B579" s="20"/>
       <c r="C579" s="13">
         <v>1.25</v>
       </c>
@@ -16962,40 +16971,43 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H579" s="39"/>
+      <c r="H579" s="39">
+        <v>1</v>
+      </c>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="20"/>
+      <c r="K579" s="49">
+        <v>45033</v>
+      </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45078</v>
+        <f t="shared" si="5"/>
+        <v>45047</v>
       </c>
       <c r="B580" s="20" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C580" s="13">
         <v>1.25</v>
       </c>
-      <c r="D580" s="39"/>
+      <c r="D580" s="39">
+        <v>3.3000000000000015E-2</v>
+      </c>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
       <c r="G580" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H580" s="39">
-        <v>1</v>
-      </c>
+      <c r="H580" s="39"/>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="49">
-        <v>45079</v>
-      </c>
-    </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K580" s="20"/>
+    </row>
+    <row r="581" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B581" s="20" t="s">
         <v>75</v>
@@ -17016,17 +17028,17 @@
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
       <c r="K581" s="49">
-        <v>45118</v>
-      </c>
-    </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C582" s="13"/>
       <c r="D582" s="39">
-        <v>1</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
@@ -17037,154 +17049,154 @@
       <c r="H582" s="39"/>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="49">
-        <v>45138</v>
-      </c>
+      <c r="K582" s="49"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="40"/>
+      <c r="A583" s="40">
+        <v>45108</v>
+      </c>
       <c r="B583" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C583" s="13"/>
-      <c r="D583" s="39">
-        <v>4.0000000000000001E-3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C583" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D583" s="39"/>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
-      <c r="G583" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H583" s="39"/>
+      <c r="G583" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H583" s="39">
+        <v>1</v>
+      </c>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="49"/>
+      <c r="K583" s="49">
+        <v>45118</v>
+      </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C584" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D584" s="39"/>
+        <v>322</v>
+      </c>
+      <c r="C584" s="13"/>
+      <c r="D584" s="39">
+        <v>1</v>
+      </c>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H584" s="39">
-        <v>9</v>
-      </c>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H584" s="39"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="20" t="s">
-        <v>314</v>
+      <c r="K584" s="49">
+        <v>45138</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="C585" s="13"/>
-      <c r="D585" s="39"/>
+      <c r="D585" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
       <c r="G585" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H585" s="39">
-        <v>9</v>
-      </c>
+      <c r="H585" s="39"/>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="20" t="s">
-        <v>316</v>
-      </c>
+      <c r="K585" s="49"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40"/>
+      <c r="A586" s="40">
+        <v>45139</v>
+      </c>
       <c r="B586" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C586" s="13"/>
+        <v>315</v>
+      </c>
+      <c r="C586" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D586" s="39"/>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G586" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H586" s="39">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="49">
-        <v>45163</v>
+      <c r="K586" s="20" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
-        <v>91</v>
+        <v>315</v>
       </c>
       <c r="C587" s="13"/>
-      <c r="D587" s="39">
-        <v>0.01</v>
-      </c>
+      <c r="D587" s="39"/>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
       <c r="G587" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H587" s="39"/>
+      <c r="H587" s="39">
+        <v>9</v>
+      </c>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="49"/>
+      <c r="K587" s="20" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A588" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C588" s="13">
-        <v>1.25</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C588" s="13"/>
       <c r="D588" s="39"/>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
-      <c r="G588" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H588" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="20" t="s">
-        <v>317</v>
+      <c r="K588" s="49">
+        <v>45163</v>
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C589" s="13"/>
       <c r="D589" s="39">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
@@ -17195,64 +17207,64 @@
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="49">
-        <v>45191</v>
-      </c>
+      <c r="K589" s="49"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A590" s="40"/>
+      <c r="A590" s="40">
+        <v>45170</v>
+      </c>
       <c r="B590" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C590" s="13"/>
-      <c r="D590" s="39">
-        <v>0.5</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D590" s="39"/>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H590" s="39"/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H590" s="39">
+        <v>5</v>
+      </c>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="49"/>
+      <c r="K590" s="20" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C591" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D591" s="39"/>
+        <v>115</v>
+      </c>
+      <c r="C591" s="13"/>
+      <c r="D591" s="39">
+        <v>1</v>
+      </c>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
-      <c r="G591" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H591" s="39">
-        <v>1</v>
-      </c>
+      <c r="G591" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H591" s="39"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
       <c r="K591" s="49">
-        <v>45205</v>
+        <v>45191</v>
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C592" s="13"/>
       <c r="D592" s="39">
-        <v>4.8000000000000008E-2</v>
+        <v>0.5</v>
       </c>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
@@ -17267,38 +17279,38 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B593" s="20" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C593" s="13">
         <v>1.25</v>
       </c>
-      <c r="D593" s="39">
-        <v>1</v>
-      </c>
+      <c r="D593" s="39"/>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
       <c r="G593" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H593" s="39"/>
+      <c r="H593" s="39">
+        <v>1</v>
+      </c>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
       <c r="K593" s="49">
-        <v>45233</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="C594" s="13"/>
       <c r="D594" s="39">
-        <v>0.01</v>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
@@ -17313,10 +17325,10 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B595" s="20" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="C595" s="13">
         <v>1.25</v>
@@ -17334,17 +17346,17 @@
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
       <c r="K595" s="49">
-        <v>45282</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="C596" s="13"/>
       <c r="D596" s="39">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
@@ -17355,37 +17367,43 @@
       <c r="H596" s="39"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="49">
-        <v>45289</v>
-      </c>
+      <c r="K596" s="49"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" s="40"/>
+      <c r="A597" s="40">
+        <v>45261</v>
+      </c>
       <c r="B597" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C597" s="13"/>
+        <v>162</v>
+      </c>
+      <c r="C597" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D597" s="39">
-        <v>0.504</v>
+        <v>1</v>
       </c>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
-      <c r="G597" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G597" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="49"/>
+      <c r="K597" s="49">
+        <v>45282</v>
+      </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="B598" s="20"/>
+      <c r="A598" s="40"/>
+      <c r="B598" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="C598" s="13"/>
-      <c r="D598" s="39"/>
+      <c r="D598" s="39">
+        <v>1</v>
+      </c>
       <c r="E598" s="9"/>
       <c r="F598" s="20"/>
       <c r="G598" s="13" t="str">
@@ -17395,17 +17413,19 @@
       <c r="H598" s="39"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="49"/>
+      <c r="K598" s="49">
+        <v>45289</v>
+      </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A599" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="C599" s="13"/>
-      <c r="D599" s="39"/>
+      <c r="D599" s="39">
+        <v>0.504</v>
+      </c>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
       <c r="G599" s="13" t="str">
@@ -17415,13 +17435,11 @@
       <c r="H599" s="39"/>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="49">
-        <v>45306</v>
-      </c>
+      <c r="K599" s="49"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A600" s="40">
-        <v>45323</v>
+      <c r="A600" s="48" t="s">
+        <v>318</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17435,13 +17453,15 @@
       <c r="H600" s="39"/>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="20"/>
+      <c r="K600" s="49"/>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B601" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B601" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C601" s="13"/>
       <c r="D601" s="39"/>
       <c r="E601" s="9"/>
@@ -17453,11 +17473,13 @@
       <c r="H601" s="39"/>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="20"/>
+      <c r="K601" s="49">
+        <v>45306</v>
+      </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17475,7 +17497,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17493,7 +17515,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17511,7 +17533,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17529,7 +17551,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17547,7 +17569,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17565,7 +17587,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17583,7 +17605,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17601,7 +17623,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17619,7 +17641,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17637,7 +17659,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17655,7 +17677,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17673,7 +17695,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17691,7 +17713,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17709,7 +17731,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17726,7 +17748,9 @@
       <c r="K616" s="20"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A617" s="40"/>
+      <c r="A617" s="40">
+        <v>45778</v>
+      </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
       <c r="D617" s="39"/>
@@ -17742,7 +17766,9 @@
       <c r="K617" s="20"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A618" s="40"/>
+      <c r="A618" s="40">
+        <v>45809</v>
+      </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
       <c r="D618" s="39"/>
@@ -17918,7 +17944,7 @@
       <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="48"/>
+      <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
       <c r="D629" s="39"/>
@@ -17950,7 +17976,7 @@
       <c r="K630" s="20"/>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" s="40"/>
+      <c r="A631" s="48"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
       <c r="D631" s="39"/>
@@ -18126,7 +18152,7 @@
       <c r="K641" s="20"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" s="48"/>
+      <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
       <c r="D642" s="39"/>
@@ -18158,7 +18184,7 @@
       <c r="K643" s="20"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A644" s="40"/>
+      <c r="A644" s="48"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
       <c r="D644" s="39"/>
@@ -18580,7 +18606,10 @@
       <c r="D670" s="39"/>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="13"/>
+      <c r="G670" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H670" s="39"/>
       <c r="I670" s="9"/>
       <c r="J670" s="11"/>
@@ -18593,7 +18622,10 @@
       <c r="D671" s="39"/>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
-      <c r="G671" s="13"/>
+      <c r="G671" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H671" s="39"/>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
@@ -18983,10 +19015,7 @@
       <c r="D701" s="39"/>
       <c r="E701" s="9"/>
       <c r="F701" s="20"/>
-      <c r="G701" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G701" s="13"/>
       <c r="H701" s="39"/>
       <c r="I701" s="9"/>
       <c r="J701" s="11"/>
@@ -18999,10 +19028,7 @@
       <c r="D702" s="39"/>
       <c r="E702" s="9"/>
       <c r="F702" s="20"/>
-      <c r="G702" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G702" s="13"/>
       <c r="H702" s="39"/>
       <c r="I702" s="9"/>
       <c r="J702" s="11"/>
@@ -19121,20 +19147,52 @@
       <c r="K709" s="20"/>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A710" s="41"/>
-      <c r="B710" s="15"/>
-      <c r="C710" s="42"/>
-      <c r="D710" s="43"/>
-      <c r="E710" s="51"/>
-      <c r="F710" s="15"/>
-      <c r="G710" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H710" s="43"/>
-      <c r="I710" s="51"/>
-      <c r="J710" s="12"/>
-      <c r="K710" s="15"/>
+      <c r="A710" s="40"/>
+      <c r="B710" s="20"/>
+      <c r="C710" s="13"/>
+      <c r="D710" s="39"/>
+      <c r="E710" s="9"/>
+      <c r="F710" s="20"/>
+      <c r="G710" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H710" s="39"/>
+      <c r="I710" s="9"/>
+      <c r="J710" s="11"/>
+      <c r="K710" s="20"/>
+    </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A711" s="40"/>
+      <c r="B711" s="20"/>
+      <c r="C711" s="13"/>
+      <c r="D711" s="39"/>
+      <c r="E711" s="9"/>
+      <c r="F711" s="20"/>
+      <c r="G711" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H711" s="39"/>
+      <c r="I711" s="9"/>
+      <c r="J711" s="11"/>
+      <c r="K711" s="20"/>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A712" s="41"/>
+      <c r="B712" s="15"/>
+      <c r="C712" s="42"/>
+      <c r="D712" s="43"/>
+      <c r="E712" s="51"/>
+      <c r="F712" s="15"/>
+      <c r="G712" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H712" s="43"/>
+      <c r="I712" s="51"/>
+      <c r="J712" s="12"/>
+      <c r="K712" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19247,11 +19305,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -19300,7 +19358,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>283.10999999999996</v>
+        <v>282.0089999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/MALUBAY, MELINDA.xlsx
+++ b/REGULAR/CTO/MALUBAY, MELINDA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E592A3-FBBA-4F0F-A210-3BA077F16FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="326">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1009,12 +1010,15 @@
   </si>
   <si>
     <t>UT(0-4-11)</t>
+  </si>
+  <si>
+    <t>2/12,13/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1889,7 +1893,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1936,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +2000,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2060,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2126,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2189,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2287,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2346,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2411,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2454,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2529,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2715,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2781,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2839,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2905,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2961,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3032,7 +3036,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3079,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3141,7 +3145,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,7 +3201,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3295,7 +3299,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3358,7 +3362,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3407,7 +3411,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3424,25 +3428,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3454,13 +3458,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3469,14 +3473,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3780,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3790,7 +3794,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3798,34 +3802,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K712"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A570" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A594" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E579" sqref="E579"/>
+      <selection pane="bottomLeft" activeCell="K603" sqref="K603"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3846,7 +3850,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3868,7 +3872,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3890,7 +3894,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3898,7 +3902,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3911,7 +3915,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3928,7 +3932,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3963,7 +3967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3972,7 +3976,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>195.38299999999992</v>
+        <v>196.63299999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3982,12 +3986,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>86.625999999999976</v>
+        <v>85.875999999999976</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
@@ -4002,7 +4006,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>33619</v>
       </c>
@@ -4022,7 +4026,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>33635</v>
       </c>
@@ -4042,7 +4046,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>33664</v>
@@ -4063,7 +4067,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A81" si="0">EDATE(A13,1)</f>
         <v>33695</v>
@@ -4084,7 +4088,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>33725</v>
@@ -4105,7 +4109,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>33756</v>
@@ -4126,7 +4130,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>33786</v>
@@ -4147,7 +4151,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>33817</v>
@@ -4168,7 +4172,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>33848</v>
@@ -4189,7 +4193,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>33878</v>
@@ -4210,7 +4214,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>33909</v>
@@ -4231,7 +4235,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>33939</v>
@@ -4252,7 +4256,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>42</v>
       </c>
@@ -4270,7 +4274,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f>EDATE(A22,1)</f>
         <v>33970</v>
@@ -4291,7 +4295,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>34001</v>
@@ -4312,7 +4316,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>34029</v>
@@ -4333,7 +4337,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>34060</v>
@@ -4354,7 +4358,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>34090</v>
@@ -4375,7 +4379,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>34121</v>
@@ -4396,7 +4400,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>34151</v>
@@ -4417,7 +4421,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>34182</v>
@@ -4438,7 +4442,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>34213</v>
@@ -4459,7 +4463,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>34243</v>
@@ -4480,7 +4484,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>34274</v>
@@ -4501,7 +4505,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>34304</v>
@@ -4526,7 +4530,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>43</v>
       </c>
@@ -4544,7 +4548,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>34335</v>
@@ -4565,7 +4569,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="0"/>
         <v>34366</v>
@@ -4586,7 +4590,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="0"/>
         <v>34394</v>
@@ -4607,7 +4611,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="0"/>
         <v>34425</v>
@@ -4628,7 +4632,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f>EDATE(A40,1)</f>
         <v>34455</v>
@@ -4649,7 +4653,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>34486</v>
@@ -4670,7 +4674,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>34516</v>
@@ -4691,7 +4695,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>34547</v>
@@ -4712,7 +4716,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>34578</v>
@@ -4733,7 +4737,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>34608</v>
@@ -4756,7 +4760,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>34639</v>
@@ -4779,7 +4783,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>34669</v>
@@ -4804,7 +4808,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>44</v>
       </c>
@@ -4822,7 +4826,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>34700</v>
@@ -4843,7 +4847,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>34731</v>
@@ -4864,7 +4868,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>34759</v>
@@ -4885,7 +4889,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4908,7 +4912,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4935,7 +4939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4962,7 +4966,7 @@
         <v>34548</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4983,7 +4987,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="49"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -5004,7 +5008,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -5025,7 +5029,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="49"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -5046,7 +5050,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -5067,7 +5071,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="49"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -5088,7 +5092,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="49"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>45</v>
       </c>
@@ -5106,7 +5110,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="49"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>35065</v>
@@ -5127,7 +5131,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>35096</v>
@@ -5148,7 +5152,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="0"/>
         <v>35125</v>
@@ -5169,7 +5173,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -5190,7 +5194,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="49"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -5211,7 +5215,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -5232,7 +5236,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="49"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -5259,7 +5263,7 @@
         <v>35271</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -5280,7 +5284,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -5301,7 +5305,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -5324,7 +5328,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -5349,7 +5353,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -5374,7 +5378,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>46</v>
       </c>
@@ -5392,7 +5396,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A74,1)</f>
         <v>35431</v>
@@ -5419,7 +5423,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -5446,7 +5450,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -5471,7 +5475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -5496,7 +5500,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -5523,7 +5527,7 @@
         <v>35573</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -5550,7 +5554,7 @@
         <v>35598</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>75</v>
@@ -5572,7 +5576,7 @@
         <v>35608</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>35612</v>
@@ -5599,7 +5603,7 @@
         <v>35626</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>75</v>
@@ -5621,7 +5625,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A83,1)</f>
         <v>35643</v>
@@ -5642,7 +5646,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="49"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" ref="A86:A179" si="1">EDATE(A85,1)</f>
         <v>35674</v>
@@ -5663,7 +5667,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -5684,7 +5688,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f t="shared" si="1"/>
         <v>35735</v>
@@ -5711,7 +5715,7 @@
         <v>35737</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" si="1"/>
         <v>35765</v>
@@ -5736,7 +5740,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>47</v>
       </c>
@@ -5754,7 +5758,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f>EDATE(A89,1)</f>
         <v>35796</v>
@@ -5775,7 +5779,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="1"/>
         <v>35827</v>
@@ -5802,7 +5806,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="1"/>
         <v>35855</v>
@@ -5823,7 +5827,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -5844,7 +5848,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -5865,7 +5869,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -5892,7 +5896,7 @@
         <v>35949</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -5919,7 +5923,7 @@
         <v>35990</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>75</v>
@@ -5941,7 +5945,7 @@
         <v>36007</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>36008</v>
@@ -5962,7 +5966,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -5989,7 +5993,7 @@
         <v>36056</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -6016,7 +6020,7 @@
         <v>36077</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -6041,7 +6045,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -6068,7 +6072,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>85</v>
@@ -6088,7 +6092,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="49"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>89</v>
@@ -6108,7 +6112,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>48</v>
       </c>
@@ -6126,7 +6130,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A103,1)</f>
         <v>36161</v>
@@ -6153,7 +6157,7 @@
         <v>36164</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="1"/>
         <v>36192</v>
@@ -6174,7 +6178,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="1"/>
         <v>36220</v>
@@ -6201,7 +6205,7 @@
         <v>36230</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>81</v>
@@ -6221,7 +6225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>91</v>
@@ -6241,7 +6245,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A109,1)</f>
         <v>36251</v>
@@ -6266,7 +6270,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -6293,7 +6297,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>94</v>
@@ -6313,7 +6317,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>36312</v>
@@ -6340,7 +6344,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>95</v>
@@ -6360,7 +6364,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f>EDATE(A115,1)</f>
         <v>36342</v>
@@ -6387,7 +6391,7 @@
         <v>36353</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>97</v>
@@ -6407,7 +6411,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>36373</v>
@@ -6432,7 +6436,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -6457,7 +6461,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -6482,7 +6486,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -6507,7 +6511,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="49"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -6532,7 +6536,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="49"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>85</v>
@@ -6552,7 +6556,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="49"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="48" t="s">
         <v>49</v>
       </c>
@@ -6570,7 +6574,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="49"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A123,1)</f>
         <v>36526</v>
@@ -6595,7 +6599,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>36557</v>
@@ -6622,7 +6626,7 @@
         <v>36560</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>75</v>
@@ -6644,7 +6648,7 @@
         <v>36567</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>103</v>
@@ -6664,7 +6668,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f>EDATE(A127,1)</f>
         <v>36586</v>
@@ -6689,7 +6693,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>36617</v>
@@ -6714,7 +6718,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -6739,7 +6743,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="49"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -6764,7 +6768,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="49"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -6789,7 +6793,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -6816,7 +6820,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>110</v>
@@ -6836,7 +6840,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>36770</v>
@@ -6857,7 +6861,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -6882,7 +6886,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -6907,7 +6911,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="1"/>
         <v>36861</v>
@@ -6932,7 +6936,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>112</v>
@@ -6952,7 +6956,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="48" t="s">
         <v>50</v>
       </c>
@@ -6970,7 +6974,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f>EDATE(A140,1)</f>
         <v>36892</v>
@@ -6997,7 +7001,7 @@
         <v>36906</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>113</v>
@@ -7017,7 +7021,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>89</v>
@@ -7037,7 +7041,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="49"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f>EDATE(A143,1)</f>
         <v>36923</v>
@@ -7064,7 +7068,7 @@
         <v>36934</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>75</v>
@@ -7086,7 +7090,7 @@
         <v>36937</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>89</v>
@@ -7106,7 +7110,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f>EDATE(A146,1)</f>
         <v>36951</v>
@@ -7133,7 +7137,7 @@
         <v>36959</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>116</v>
@@ -7153,7 +7157,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="49"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>36982</v>
@@ -7180,7 +7184,7 @@
         <v>37001</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>75</v>
@@ -7202,7 +7206,7 @@
         <v>37011</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>117</v>
@@ -7222,7 +7226,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>37012</v>
@@ -7249,7 +7253,7 @@
         <v>37034</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>74</v>
@@ -7271,7 +7275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>118</v>
@@ -7291,7 +7295,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f>EDATE(A154,1)</f>
         <v>37043</v>
@@ -7316,7 +7320,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -7341,7 +7345,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -7366,7 +7370,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -7391,7 +7395,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -7416,7 +7420,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -7443,7 +7447,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>95</v>
@@ -7463,7 +7467,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f>EDATE(A162,1)</f>
         <v>37226</v>
@@ -7488,7 +7492,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="48" t="s">
         <v>51</v>
       </c>
@@ -7506,7 +7510,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f>EDATE(A164,1)</f>
         <v>37257</v>
@@ -7531,7 +7535,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -7556,7 +7560,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -7581,7 +7585,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="49"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -7608,7 +7612,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>129</v>
@@ -7628,7 +7632,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>81</v>
@@ -7648,7 +7652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A169,1)</f>
         <v>37377</v>
@@ -7673,7 +7677,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -7700,7 +7704,7 @@
         <v>37420</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>131</v>
@@ -7720,7 +7724,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="49"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>37438</v>
@@ -7747,7 +7751,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -7768,7 +7772,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="49"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -7789,7 +7793,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -7810,7 +7814,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="49"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -7837,7 +7841,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" ref="A180:A254" si="2">EDATE(A179,1)</f>
         <v>37591</v>
@@ -7862,7 +7866,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="49"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="48" t="s">
         <v>52</v>
       </c>
@@ -7880,7 +7884,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="49"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f>EDATE(A180,1)</f>
         <v>37622</v>
@@ -7901,7 +7905,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="49"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="2"/>
         <v>37653</v>
@@ -7928,7 +7932,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="2"/>
         <v>37681</v>
@@ -7949,7 +7953,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" si="2"/>
         <v>37712</v>
@@ -7974,7 +7978,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f t="shared" si="2"/>
         <v>37742</v>
@@ -7995,7 +7999,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="2"/>
         <v>37773</v>
@@ -8016,7 +8020,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="2"/>
         <v>37803</v>
@@ -8037,7 +8041,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="2"/>
         <v>37834</v>
@@ -8058,7 +8062,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="2"/>
         <v>37865</v>
@@ -8079,7 +8083,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f t="shared" si="2"/>
         <v>37895</v>
@@ -8100,7 +8104,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" si="2"/>
         <v>37926</v>
@@ -8127,7 +8131,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="2"/>
         <v>37956</v>
@@ -8152,7 +8156,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="48" t="s">
         <v>53</v>
       </c>
@@ -8170,7 +8174,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>37987</v>
@@ -8191,7 +8195,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="2"/>
         <v>38018</v>
@@ -8212,7 +8216,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="2"/>
         <v>38047</v>
@@ -8233,7 +8237,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" si="2"/>
         <v>38078</v>
@@ -8254,7 +8258,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="2"/>
         <v>38108</v>
@@ -8275,7 +8279,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="2"/>
         <v>38139</v>
@@ -8296,7 +8300,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f t="shared" si="2"/>
         <v>38169</v>
@@ -8317,7 +8321,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f t="shared" si="2"/>
         <v>38200</v>
@@ -8338,7 +8342,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f t="shared" si="2"/>
         <v>38231</v>
@@ -8365,7 +8369,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>134</v>
@@ -8387,7 +8391,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>38261</v>
@@ -8408,7 +8412,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="2"/>
         <v>38292</v>
@@ -8433,7 +8437,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>84</v>
@@ -8455,7 +8459,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>38322</v>
@@ -8476,7 +8480,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="48" t="s">
         <v>54</v>
       </c>
@@ -8494,7 +8498,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f>EDATE(A208,1)</f>
         <v>38353</v>
@@ -8515,7 +8519,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="2"/>
         <v>38384</v>
@@ -8536,7 +8540,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" si="2"/>
         <v>38412</v>
@@ -8557,7 +8561,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="49"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -8578,7 +8582,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="2"/>
         <v>38473</v>
@@ -8599,7 +8603,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -8620,7 +8624,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -8641,7 +8645,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="49"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -8666,7 +8670,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -8687,7 +8691,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="49"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -8708,7 +8712,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -8735,7 +8739,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>145</v>
@@ -8757,7 +8761,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>38687</v>
@@ -8784,7 +8788,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>124</v>
@@ -8804,7 +8808,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="49"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="48" t="s">
         <v>55</v>
       </c>
@@ -8822,7 +8826,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="49"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f>EDATE(A222,1)</f>
         <v>38718</v>
@@ -8849,7 +8853,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>85</v>
@@ -8871,7 +8875,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f>EDATE(A225,1)</f>
         <v>38749</v>
@@ -8892,7 +8896,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="2"/>
         <v>38777</v>
@@ -8913,7 +8917,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -8940,7 +8944,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -8965,7 +8969,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -8990,7 +8994,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -9011,7 +9015,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -9032,7 +9036,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -9059,7 +9063,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="2"/>
         <v>38991</v>
@@ -9080,7 +9084,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -9101,7 +9105,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="49"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -9122,7 +9126,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="48" t="s">
         <v>56</v>
       </c>
@@ -9140,7 +9144,7 @@
       <c r="J238" s="12"/>
       <c r="K238" s="15"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>39083</v>
@@ -9161,7 +9165,7 @@
       <c r="J239" s="12"/>
       <c r="K239" s="50"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="2"/>
         <v>39114</v>
@@ -9182,7 +9186,7 @@
       <c r="J240" s="12"/>
       <c r="K240" s="15"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -9203,7 +9207,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="2"/>
         <v>39173</v>
@@ -9224,7 +9228,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -9245,7 +9249,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="49"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f t="shared" si="2"/>
         <v>39234</v>
@@ -9266,7 +9270,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -9287,7 +9291,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" si="2"/>
         <v>39295</v>
@@ -9308,7 +9312,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -9329,7 +9333,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="49"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f t="shared" si="2"/>
         <v>39356</v>
@@ -9350,7 +9354,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -9371,7 +9375,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -9396,7 +9400,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="48" t="s">
         <v>57</v>
       </c>
@@ -9414,7 +9418,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39448</v>
@@ -9435,7 +9439,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" si="2"/>
         <v>39479</v>
@@ -9456,7 +9460,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="2"/>
         <v>39508</v>
@@ -9477,7 +9481,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="49"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" ref="A255:A388" si="3">EDATE(A254,1)</f>
         <v>39539</v>
@@ -9498,7 +9502,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f t="shared" si="3"/>
         <v>39569</v>
@@ -9519,7 +9523,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f t="shared" si="3"/>
         <v>39600</v>
@@ -9540,7 +9544,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" si="3"/>
         <v>39630</v>
@@ -9561,7 +9565,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="3"/>
         <v>39661</v>
@@ -9582,7 +9586,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="49"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="3"/>
         <v>39692</v>
@@ -9607,7 +9611,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="3"/>
         <v>39722</v>
@@ -9634,7 +9638,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>74</v>
@@ -9656,7 +9660,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>81</v>
@@ -9676,7 +9680,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>172</v>
@@ -9696,7 +9700,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="49"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f>EDATE(A261,1)</f>
         <v>39753</v>
@@ -9723,7 +9727,7 @@
         <v>39776</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>85</v>
@@ -9745,7 +9749,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>75</v>
@@ -9767,7 +9771,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>175</v>
@@ -9787,7 +9791,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f>EDATE(A265,1)</f>
         <v>39783</v>
@@ -9814,7 +9818,7 @@
         <v>39801</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>176</v>
@@ -9834,7 +9838,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="49"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="48" t="s">
         <v>58</v>
       </c>
@@ -9852,7 +9856,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="49"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A269,1)</f>
         <v>39814</v>
@@ -9879,7 +9883,7 @@
         <v>39846</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>154</v>
@@ -9899,7 +9903,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="49"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>39845</v>
@@ -9926,7 +9930,7 @@
         <v>39849</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>74</v>
@@ -9948,7 +9952,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>81</v>
@@ -9968,7 +9972,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>155</v>
@@ -9988,7 +9992,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f>EDATE(A274,1)</f>
         <v>39873</v>
@@ -10013,7 +10017,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f t="shared" si="3"/>
         <v>39904</v>
@@ -10040,7 +10044,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>81</v>
@@ -10060,7 +10064,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>161</v>
@@ -10080,7 +10084,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>39934</v>
@@ -10107,7 +10111,7 @@
         <v>39969</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>154</v>
@@ -10127,7 +10131,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="49"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>39965</v>
@@ -10152,7 +10156,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f t="shared" si="3"/>
         <v>39995</v>
@@ -10179,7 +10183,7 @@
         <v>40014</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>92</v>
@@ -10199,7 +10203,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="49"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>40026</v>
@@ -10224,7 +10228,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f t="shared" si="3"/>
         <v>40057</v>
@@ -10251,7 +10255,7 @@
         <v>40067</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>165</v>
@@ -10271,7 +10275,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="49"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f>EDATE(A288,1)</f>
         <v>40087</v>
@@ -10298,7 +10302,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>75</v>
@@ -10320,7 +10324,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>166</v>
@@ -10340,7 +10344,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A290,1)</f>
         <v>40118</v>
@@ -10367,7 +10371,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>75</v>
@@ -10389,7 +10393,7 @@
         <v>40130</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>168</v>
@@ -10409,7 +10413,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f>EDATE(A293,1)</f>
         <v>40148</v>
@@ -10436,7 +10440,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>170</v>
@@ -10456,7 +10460,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="48" t="s">
         <v>59</v>
       </c>
@@ -10474,7 +10478,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A296,1)</f>
         <v>40179</v>
@@ -10499,7 +10503,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f t="shared" si="3"/>
         <v>40210</v>
@@ -10526,7 +10530,7 @@
         <v>40214</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>132</v>
@@ -10548,7 +10552,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>81</v>
@@ -10568,7 +10572,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>177</v>
@@ -10588,7 +10592,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f>EDATE(A300,1)</f>
         <v>40238</v>
@@ -10613,7 +10617,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" si="3"/>
         <v>40269</v>
@@ -10640,7 +10644,7 @@
         <v>40276</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>74</v>
@@ -10662,7 +10666,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>181</v>
@@ -10682,7 +10686,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f>EDATE(A305,1)</f>
         <v>40299</v>
@@ -10707,7 +10711,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f t="shared" si="3"/>
         <v>40330</v>
@@ -10734,7 +10738,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>185</v>
@@ -10754,7 +10758,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f>EDATE(A309,1)</f>
         <v>40360</v>
@@ -10781,7 +10785,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>75</v>
@@ -10803,7 +10807,7 @@
         <v>40382</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>187</v>
@@ -10823,7 +10827,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f>EDATE(A311,1)</f>
         <v>40391</v>
@@ -10850,7 +10854,7 @@
         <v>40408</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>188</v>
@@ -10870,7 +10874,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A314,1)</f>
         <v>40422</v>
@@ -10897,7 +10901,7 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>81</v>
@@ -10917,7 +10921,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>171</v>
@@ -10937,7 +10941,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="49"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f>EDATE(A316,1)</f>
         <v>40452</v>
@@ -10964,7 +10968,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>75</v>
@@ -10986,7 +10990,7 @@
         <v>40480</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>180</v>
@@ -11006,7 +11010,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A319,1)</f>
         <v>40483</v>
@@ -11033,7 +11037,7 @@
         <v>40487</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>124</v>
@@ -11055,7 +11059,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>75</v>
@@ -11077,7 +11081,7 @@
         <v>40504</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>177</v>
@@ -11097,7 +11101,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f>EDATE(A322,1)</f>
         <v>40513</v>
@@ -11124,7 +11128,7 @@
         <v>40521</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>192</v>
@@ -11144,7 +11148,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="49"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>75</v>
@@ -11166,7 +11170,7 @@
         <v>40542</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="48" t="s">
         <v>60</v>
       </c>
@@ -11184,7 +11188,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f>EDATE(A326,1)</f>
         <v>40544</v>
@@ -11211,7 +11215,7 @@
         <v>40557</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>75</v>
@@ -11233,7 +11237,7 @@
         <v>40560</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>193</v>
@@ -11253,7 +11257,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A330,1)</f>
         <v>40575</v>
@@ -11280,7 +11284,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>75</v>
@@ -11302,7 +11306,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>194</v>
@@ -11322,7 +11326,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f>EDATE(A333,1)</f>
         <v>40603</v>
@@ -11349,7 +11353,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f t="shared" si="3"/>
         <v>40634</v>
@@ -11376,7 +11380,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f t="shared" si="3"/>
         <v>40664</v>
@@ -11401,7 +11405,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>75</v>
@@ -11423,7 +11427,7 @@
         <v>40676</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>91</v>
@@ -11443,7 +11447,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A338,1)</f>
         <v>40695</v>
@@ -11470,7 +11474,7 @@
         <v>40711</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>75</v>
@@ -11492,7 +11496,7 @@
         <v>40721</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>201</v>
@@ -11512,7 +11516,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f>EDATE(A341,1)</f>
         <v>40725</v>
@@ -11537,7 +11541,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -11564,7 +11568,7 @@
         <v>40771</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>75</v>
@@ -11586,7 +11590,7 @@
         <v>40778</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>204</v>
@@ -11606,7 +11610,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>40787</v>
@@ -11631,7 +11635,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="49"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="3"/>
         <v>40817</v>
@@ -11658,7 +11662,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>75</v>
@@ -11680,7 +11684,7 @@
         <v>40837</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>206</v>
@@ -11700,7 +11704,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="49"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f>EDATE(A349,1)</f>
         <v>40848</v>
@@ -11727,7 +11731,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>208</v>
@@ -11747,7 +11751,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="49"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>40878</v>
@@ -11774,7 +11778,7 @@
         <v>40897</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>209</v>
@@ -11794,7 +11798,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="48" t="s">
         <v>61</v>
       </c>
@@ -11812,7 +11816,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f>EDATE(A354,1)</f>
         <v>40909</v>
@@ -11839,7 +11843,7 @@
         <v>40927</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>210</v>
@@ -11859,7 +11863,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>40940</v>
@@ -11886,7 +11890,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>211</v>
@@ -11906,7 +11910,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="49"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f>EDATE(A359,1)</f>
         <v>40969</v>
@@ -11931,7 +11935,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>111</v>
@@ -11951,7 +11955,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>41000</v>
@@ -11978,7 +11982,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>74</v>
@@ -12000,7 +12004,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>213</v>
@@ -12020,7 +12024,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A363,1)</f>
         <v>41030</v>
@@ -12047,7 +12051,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>185</v>
@@ -12067,7 +12071,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41061</v>
@@ -12092,7 +12096,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -12113,7 +12117,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f t="shared" si="3"/>
         <v>41122</v>
@@ -12140,7 +12144,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" si="3"/>
         <v>41153</v>
@@ -12161,7 +12165,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" si="3"/>
         <v>41183</v>
@@ -12182,7 +12186,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="49"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f t="shared" si="3"/>
         <v>41214</v>
@@ -12203,7 +12207,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="49"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="3"/>
         <v>41244</v>
@@ -12228,7 +12232,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="48" t="s">
         <v>62</v>
       </c>
@@ -12246,7 +12250,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>41275</v>
@@ -12273,7 +12277,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f t="shared" si="3"/>
         <v>41306</v>
@@ -12300,7 +12304,7 @@
         <v>41309</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>162</v>
@@ -12322,7 +12326,7 @@
         <v>41316</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>81</v>
@@ -12342,7 +12346,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>220</v>
@@ -12362,7 +12366,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="49"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f>EDATE(A377,1)</f>
         <v>41334</v>
@@ -12387,7 +12391,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f t="shared" si="3"/>
         <v>41365</v>
@@ -12414,7 +12418,7 @@
         <v>41367</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>222</v>
@@ -12434,7 +12438,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="49"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f>EDATE(A382,1)</f>
         <v>41395</v>
@@ -12461,7 +12465,7 @@
         <v>41415</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>74</v>
@@ -12483,7 +12487,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>223</v>
@@ -12503,7 +12507,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f>EDATE(A384,1)</f>
         <v>41426</v>
@@ -12528,7 +12532,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="3"/>
         <v>41456</v>
@@ -12555,7 +12559,7 @@
         <v>41474</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>226</v>
@@ -12575,7 +12579,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="49"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f>EDATE(A388,1)</f>
         <v>41487</v>
@@ -12602,7 +12606,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>91</v>
@@ -12622,7 +12626,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="49"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f>EDATE(A390,1)</f>
         <v>41518</v>
@@ -12649,7 +12653,7 @@
         <v>41530</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>81</v>
@@ -12669,7 +12673,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>213</v>
@@ -12689,7 +12693,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A392,1)</f>
         <v>41548</v>
@@ -12716,7 +12720,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>213</v>
@@ -12736,7 +12740,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="49"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41579</v>
@@ -12761,7 +12765,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>73</v>
@@ -12783,7 +12787,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>228</v>
@@ -12803,7 +12807,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="49"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A397,1)</f>
         <v>41609</v>
@@ -12828,7 +12832,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="48" t="s">
         <v>63</v>
       </c>
@@ -12846,7 +12850,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41640</v>
@@ -12871,7 +12875,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="49"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A500" si="4">EDATE(A402,1)</f>
         <v>41671</v>
@@ -12898,7 +12902,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>234</v>
@@ -12918,7 +12922,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>41699</v>
@@ -12945,7 +12949,7 @@
         <v>41722</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>105</v>
@@ -12965,7 +12969,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="49"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>41730</v>
@@ -12992,7 +12996,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>203</v>
@@ -13012,7 +13016,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="49"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>41760</v>
@@ -13037,7 +13041,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f t="shared" si="4"/>
         <v>41791</v>
@@ -13062,7 +13066,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="49"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f t="shared" si="4"/>
         <v>41821</v>
@@ -13089,7 +13093,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>94</v>
@@ -13109,7 +13113,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>41852</v>
@@ -13134,7 +13138,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="49"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f t="shared" si="4"/>
         <v>41883</v>
@@ -13161,7 +13165,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>141</v>
@@ -13181,7 +13185,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>124</v>
@@ -13203,7 +13207,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>75</v>
@@ -13225,7 +13229,7 @@
         <v>41912</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>110</v>
@@ -13245,7 +13249,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="49"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f>EDATE(A414,1)</f>
         <v>41913</v>
@@ -13272,7 +13276,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>243</v>
@@ -13292,7 +13296,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="49"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>41944</v>
@@ -13317,7 +13321,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="4"/>
         <v>41974</v>
@@ -13344,7 +13348,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>81</v>
@@ -13364,7 +13368,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>245</v>
@@ -13384,7 +13388,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="49"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="48" t="s">
         <v>64</v>
       </c>
@@ -13402,7 +13406,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="49"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f>EDATE(A422,1)</f>
         <v>42005</v>
@@ -13427,7 +13431,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="49"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <f t="shared" si="4"/>
         <v>42036</v>
@@ -13454,7 +13458,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>162</v>
@@ -13476,7 +13480,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f>EDATE(A427,1)</f>
         <v>42064</v>
@@ -13503,7 +13507,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>198</v>
@@ -13525,7 +13529,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>250</v>
@@ -13547,7 +13551,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>251</v>
@@ -13571,7 +13575,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f>EDATE(A429,1)</f>
         <v>42095</v>
@@ -13592,7 +13596,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f t="shared" si="4"/>
         <v>42125</v>
@@ -13617,7 +13621,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="49"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" si="4"/>
         <v>42156</v>
@@ -13638,7 +13642,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="49"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="4"/>
         <v>42186</v>
@@ -13665,7 +13669,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f t="shared" si="4"/>
         <v>42217</v>
@@ -13692,7 +13696,7 @@
         <v>42233</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f t="shared" si="4"/>
         <v>42248</v>
@@ -13719,7 +13723,7 @@
         <v>42254</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>255</v>
@@ -13741,7 +13745,7 @@
       </c>
       <c r="K439" s="49"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f>EDATE(A438,1)</f>
         <v>42278</v>
@@ -13768,7 +13772,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>75</v>
@@ -13790,7 +13794,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>42309</v>
@@ -13817,7 +13821,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>256</v>
@@ -13839,7 +13843,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f>EDATE(A442,1)</f>
         <v>42339</v>
@@ -13866,7 +13870,7 @@
         <v>42352</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="48" t="s">
         <v>65</v>
       </c>
@@ -13884,7 +13888,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f>EDATE(A444,1)</f>
         <v>42370</v>
@@ -13909,7 +13913,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>81</v>
@@ -13929,7 +13933,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f>EDATE(A446,1)</f>
         <v>42401</v>
@@ -13956,7 +13960,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>81</v>
@@ -13976,7 +13980,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A448,1)</f>
         <v>42430</v>
@@ -14003,7 +14007,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f t="shared" si="4"/>
         <v>42461</v>
@@ -14030,7 +14034,7 @@
         <v>42473</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>84</v>
@@ -14052,7 +14056,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>115</v>
@@ -14074,7 +14078,7 @@
         <v>42496</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A451,1)</f>
         <v>42491</v>
@@ -14101,7 +14105,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>75</v>
@@ -14123,7 +14127,7 @@
         <v>42514</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>42522</v>
@@ -14144,7 +14148,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f t="shared" si="4"/>
         <v>42552</v>
@@ -14171,7 +14175,7 @@
         <v>42576</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" si="4"/>
         <v>42583</v>
@@ -14198,7 +14202,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="4"/>
         <v>42614</v>
@@ -14225,7 +14229,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>134</v>
@@ -14247,7 +14251,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <f>EDATE(A459,1)</f>
         <v>42644</v>
@@ -14274,7 +14278,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f t="shared" si="4"/>
         <v>42675</v>
@@ -14301,7 +14305,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f t="shared" si="4"/>
         <v>42705</v>
@@ -14328,7 +14332,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>84</v>
@@ -14350,7 +14354,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="48" t="s">
         <v>66</v>
       </c>
@@ -14368,7 +14372,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f>EDATE(A463,1)</f>
         <v>42736</v>
@@ -14389,7 +14393,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="49"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="4"/>
         <v>42767</v>
@@ -14410,7 +14414,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="49"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f t="shared" si="4"/>
         <v>42795</v>
@@ -14435,7 +14439,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -14460,7 +14464,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="4"/>
         <v>42856</v>
@@ -14481,7 +14485,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="49"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f t="shared" si="4"/>
         <v>42887</v>
@@ -14502,7 +14506,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="49"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -14523,7 +14527,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f t="shared" si="4"/>
         <v>42948</v>
@@ -14544,7 +14548,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="49"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f t="shared" si="4"/>
         <v>42979</v>
@@ -14569,7 +14573,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>275</v>
@@ -14589,7 +14593,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>75</v>
@@ -14611,7 +14615,7 @@
         <v>43017</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f>EDATE(A474,1)</f>
         <v>43009</v>
@@ -14632,7 +14636,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <f t="shared" si="4"/>
         <v>43040</v>
@@ -14659,7 +14663,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>115</v>
@@ -14681,7 +14685,7 @@
         <v>43038</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>75</v>
@@ -14703,7 +14707,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>75</v>
@@ -14725,7 +14729,7 @@
         <v>43063</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f>EDATE(A478,1)</f>
         <v>43070</v>
@@ -14752,7 +14756,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>124</v>
@@ -14772,7 +14776,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="49"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="48" t="s">
         <v>67</v>
       </c>
@@ -14790,7 +14794,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="49"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <f>EDATE(A482,1)</f>
         <v>43101</v>
@@ -14815,7 +14819,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>81</v>
@@ -14835,7 +14839,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>81</v>
@@ -14855,7 +14859,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f>EDATE(A485,1)</f>
         <v>43132</v>
@@ -14876,7 +14880,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="49"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f t="shared" si="4"/>
         <v>43160</v>
@@ -14903,7 +14907,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f t="shared" si="4"/>
         <v>43191</v>
@@ -14930,7 +14934,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>75</v>
@@ -14952,7 +14956,7 @@
         <v>43216</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>75</v>
@@ -14974,7 +14978,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f>EDATE(A490,1)</f>
         <v>43221</v>
@@ -14995,7 +14999,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <f t="shared" si="4"/>
         <v>43252</v>
@@ -15022,7 +15026,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f t="shared" si="4"/>
         <v>43282</v>
@@ -15043,7 +15047,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="49"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <f t="shared" si="4"/>
         <v>43313</v>
@@ -15070,7 +15074,7 @@
         <v>43322</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>84</v>
@@ -15092,7 +15096,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f>EDATE(A496,1)</f>
         <v>43344</v>
@@ -15113,7 +15117,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f t="shared" si="4"/>
         <v>43374</v>
@@ -15140,7 +15144,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f t="shared" si="4"/>
         <v>43405</v>
@@ -15161,7 +15165,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" ref="A501:A580" si="5">EDATE(A500,1)</f>
         <v>43435</v>
@@ -15188,7 +15192,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>115</v>
@@ -15210,7 +15214,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>162</v>
@@ -15230,7 +15234,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="48" t="s">
         <v>68</v>
       </c>
@@ -15248,7 +15252,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A501,1)</f>
         <v>43466</v>
@@ -15273,7 +15277,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <f t="shared" si="5"/>
         <v>43497</v>
@@ -15300,7 +15304,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f t="shared" si="5"/>
         <v>43525</v>
@@ -15327,7 +15331,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>75</v>
@@ -15349,7 +15353,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f>EDATE(A507,1)</f>
         <v>43556</v>
@@ -15374,7 +15378,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f t="shared" si="5"/>
         <v>43586</v>
@@ -15401,7 +15405,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>75</v>
@@ -15423,7 +15427,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <f>EDATE(A510,1)</f>
         <v>43617</v>
@@ -15448,7 +15452,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>75</v>
@@ -15470,7 +15474,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <f>EDATE(A512,1)</f>
         <v>43647</v>
@@ -15497,7 +15501,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f t="shared" si="5"/>
         <v>43678</v>
@@ -15518,7 +15522,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f t="shared" si="5"/>
         <v>43709</v>
@@ -15545,7 +15549,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>115</v>
@@ -15567,7 +15571,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f>EDATE(A516,1)</f>
         <v>43739</v>
@@ -15594,7 +15598,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>134</v>
@@ -15616,7 +15620,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>43770</v>
@@ -15643,7 +15647,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>75</v>
@@ -15665,7 +15669,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>43800</v>
@@ -15692,7 +15696,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="48" t="s">
         <v>69</v>
       </c>
@@ -15710,7 +15714,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f>EDATE(A522,1)</f>
         <v>43831</v>
@@ -15735,7 +15739,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>290</v>
@@ -15755,7 +15759,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f>EDATE(A524,1)</f>
         <v>43862</v>
@@ -15782,7 +15786,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>75</v>
@@ -15804,7 +15808,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>81</v>
@@ -15824,7 +15828,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <f>EDATE(A526,1)</f>
         <v>43891</v>
@@ -15845,7 +15849,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <f t="shared" si="5"/>
         <v>43922</v>
@@ -15866,7 +15870,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <f t="shared" si="5"/>
         <v>43952</v>
@@ -15887,7 +15891,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="49"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f t="shared" si="5"/>
         <v>43983</v>
@@ -15908,7 +15912,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <f t="shared" si="5"/>
         <v>44013</v>
@@ -15929,7 +15933,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <f t="shared" si="5"/>
         <v>44044</v>
@@ -15950,7 +15954,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <f t="shared" si="5"/>
         <v>44075</v>
@@ -15971,7 +15975,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="49"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <f t="shared" si="5"/>
         <v>44105</v>
@@ -15992,7 +15996,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <f t="shared" si="5"/>
         <v>44136</v>
@@ -16013,7 +16017,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="49"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <f t="shared" si="5"/>
         <v>44166</v>
@@ -16040,7 +16044,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>84</v>
@@ -16062,7 +16066,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="48" t="s">
         <v>70</v>
       </c>
@@ -16080,7 +16084,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="49"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <f>EDATE(A538,1)</f>
         <v>44197</v>
@@ -16101,7 +16105,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f t="shared" si="5"/>
         <v>44228</v>
@@ -16126,7 +16130,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <f t="shared" si="5"/>
         <v>44256</v>
@@ -16147,7 +16151,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <f t="shared" si="5"/>
         <v>44287</v>
@@ -16168,7 +16172,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <f t="shared" si="5"/>
         <v>44317</v>
@@ -16189,7 +16193,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f t="shared" si="5"/>
         <v>44348</v>
@@ -16210,7 +16214,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <f t="shared" si="5"/>
         <v>44378</v>
@@ -16235,7 +16239,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <f t="shared" si="5"/>
         <v>44409</v>
@@ -16256,7 +16260,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <f t="shared" si="5"/>
         <v>44440</v>
@@ -16283,7 +16287,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <f t="shared" si="5"/>
         <v>44470</v>
@@ -16310,7 +16314,7 @@
         <v>44503</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>115</v>
@@ -16332,7 +16336,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <f>EDATE(A550,1)</f>
         <v>44501</v>
@@ -16353,7 +16357,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f t="shared" si="5"/>
         <v>44531</v>
@@ -16380,7 +16384,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="48" t="s">
         <v>71</v>
       </c>
@@ -16398,7 +16402,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <f>EDATE(A553,1)</f>
         <v>44562</v>
@@ -16419,7 +16423,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <f t="shared" si="5"/>
         <v>44593</v>
@@ -16440,7 +16444,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <f t="shared" si="5"/>
         <v>44621</v>
@@ -16465,7 +16469,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>313</v>
@@ -16485,7 +16489,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <f>EDATE(A557,1)</f>
         <v>44652</v>
@@ -16512,7 +16516,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f t="shared" si="5"/>
         <v>44682</v>
@@ -16539,7 +16543,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>310</v>
@@ -16559,7 +16563,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="49"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <f>EDATE(A560,1)</f>
         <v>44713</v>
@@ -16584,7 +16588,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <f t="shared" si="5"/>
         <v>44743</v>
@@ -16609,7 +16613,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <f t="shared" si="5"/>
         <v>44774</v>
@@ -16636,7 +16640,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>307</v>
@@ -16656,7 +16660,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="49"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f>EDATE(A564,1)</f>
         <v>44805</v>
@@ -16681,7 +16685,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <f t="shared" si="5"/>
         <v>44835</v>
@@ -16706,7 +16710,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <f t="shared" si="5"/>
         <v>44866</v>
@@ -16733,7 +16737,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>306</v>
@@ -16753,7 +16757,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="49"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <f>EDATE(A568,1)</f>
         <v>44896</v>
@@ -16780,7 +16784,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>162</v>
@@ -16800,7 +16804,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>98</v>
@@ -16820,7 +16824,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="48" t="s">
         <v>72</v>
       </c>
@@ -16838,7 +16842,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <f>EDATE(A570,1)</f>
         <v>44927</v>
@@ -16863,7 +16867,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <f t="shared" si="5"/>
         <v>44958</v>
@@ -16888,7 +16892,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f t="shared" si="5"/>
         <v>44986</v>
@@ -16913,7 +16917,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>81</v>
@@ -16933,7 +16937,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>324</v>
@@ -16953,7 +16957,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="49"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <f>EDATE(A576,1)</f>
         <v>45017</v>
@@ -16980,7 +16984,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <f t="shared" si="5"/>
         <v>45047</v>
@@ -17005,7 +17009,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>45078</v>
       </c>
@@ -17031,7 +17035,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>323</v>
@@ -17051,7 +17055,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="49"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>45108</v>
       </c>
@@ -17077,7 +17081,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>322</v>
@@ -17099,7 +17103,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>111</v>
@@ -17119,7 +17123,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="49"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>45139</v>
       </c>
@@ -17145,7 +17149,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>315</v>
@@ -17167,7 +17171,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>75</v>
@@ -17189,7 +17193,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>91</v>
@@ -17209,7 +17213,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="49"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>45170</v>
       </c>
@@ -17235,7 +17239,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>115</v>
@@ -17257,7 +17261,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>321</v>
@@ -17277,7 +17281,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="49"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>45200</v>
       </c>
@@ -17303,7 +17307,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>320</v>
@@ -17323,7 +17327,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="49"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>45231</v>
       </c>
@@ -17349,7 +17353,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>91</v>
@@ -17369,7 +17373,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="49"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>45261</v>
       </c>
@@ -17395,7 +17399,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>162</v>
@@ -17417,7 +17421,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>319</v>
@@ -17437,7 +17441,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="49"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="48" t="s">
         <v>318</v>
       </c>
@@ -17455,20 +17459,22 @@
       <c r="J600" s="11"/>
       <c r="K600" s="49"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>45292</v>
       </c>
       <c r="B601" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C601" s="13"/>
+      <c r="C601" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D601" s="39"/>
       <c r="E601" s="9"/>
       <c r="F601" s="20"/>
-      <c r="G601" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G601" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H601" s="39"/>
       <c r="I601" s="9"/>
@@ -17477,11 +17483,13 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>45323</v>
       </c>
-      <c r="B602" s="20"/>
+      <c r="B602" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C602" s="13"/>
       <c r="D602" s="39"/>
       <c r="E602" s="9"/>
@@ -17490,12 +17498,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H602" s="39"/>
+      <c r="H602" s="39">
+        <v>2</v>
+      </c>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="20"/>
-    </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K602" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>45352</v>
       </c>
@@ -17513,7 +17525,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>45383</v>
       </c>
@@ -17531,7 +17543,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>45413</v>
       </c>
@@ -17549,7 +17561,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>45444</v>
       </c>
@@ -17567,7 +17579,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <v>45474</v>
       </c>
@@ -17585,7 +17597,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <v>45505</v>
       </c>
@@ -17603,7 +17615,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>45536</v>
       </c>
@@ -17621,7 +17633,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>45566</v>
       </c>
@@ -17639,7 +17651,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>45597</v>
       </c>
@@ -17657,7 +17669,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>45627</v>
       </c>
@@ -17675,7 +17687,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>45658</v>
       </c>
@@ -17693,7 +17705,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>45689</v>
       </c>
@@ -17711,7 +17723,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>45717</v>
       </c>
@@ -17729,7 +17741,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>45748</v>
       </c>
@@ -17747,7 +17759,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>45778</v>
       </c>
@@ -17765,7 +17777,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>45809</v>
       </c>
@@ -17783,7 +17795,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17799,7 +17811,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17815,7 +17827,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17831,7 +17843,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17847,7 +17859,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17863,7 +17875,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17879,7 +17891,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17895,7 +17907,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17911,7 +17923,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17927,7 +17939,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17943,7 +17955,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17959,7 +17971,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17975,7 +17987,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="48"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17991,7 +18003,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -18007,7 +18019,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -18023,7 +18035,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18039,7 +18051,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18055,7 +18067,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18071,7 +18083,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18087,7 +18099,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18103,7 +18115,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18119,7 +18131,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18135,7 +18147,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18151,7 +18163,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18167,7 +18179,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18183,7 +18195,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="48"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18199,7 +18211,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18215,7 +18227,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18231,7 +18243,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18247,7 +18259,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18263,7 +18275,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18279,7 +18291,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18295,7 +18307,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18311,7 +18323,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18327,7 +18339,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18343,7 +18355,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18359,7 +18371,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18375,7 +18387,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18391,7 +18403,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18407,7 +18419,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18423,7 +18435,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18439,7 +18451,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18455,7 +18467,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18471,7 +18483,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18487,7 +18499,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18503,7 +18515,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18519,7 +18531,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18535,7 +18547,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18551,7 +18563,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18567,7 +18579,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18583,7 +18595,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18599,7 +18611,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18615,7 +18627,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18631,7 +18643,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18644,7 +18656,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18657,7 +18669,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18670,7 +18682,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18683,7 +18695,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18696,7 +18708,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18709,7 +18721,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18722,7 +18734,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18735,7 +18747,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18748,7 +18760,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18761,7 +18773,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18774,7 +18786,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18787,7 +18799,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18800,7 +18812,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18813,7 +18825,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18826,7 +18838,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18839,7 +18851,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18852,7 +18864,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18865,7 +18877,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18878,7 +18890,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18891,7 +18903,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18904,7 +18916,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18917,7 +18929,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18930,7 +18942,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18943,7 +18955,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18956,7 +18968,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18969,7 +18981,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18982,7 +18994,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18995,7 +19007,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19008,7 +19020,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19021,7 +19033,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19034,7 +19046,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19050,7 +19062,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19066,7 +19078,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19082,7 +19094,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19098,7 +19110,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19114,7 +19126,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19130,7 +19142,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19146,7 +19158,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19162,7 +19174,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19178,7 +19190,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="41"/>
       <c r="B712" s="15"/>
       <c r="C712" s="42"/>
@@ -19209,10 +19221,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19235,7 +19247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19243,21 +19255,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
@@ -19270,7 +19282,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19299,7 +19311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -19321,17 +19333,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>302</v>
       </c>
@@ -19355,10 +19367,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>282.0089999999999</v>
+        <v>282.5089999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -19386,7 +19398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19412,7 +19424,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19438,7 +19450,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19464,7 +19476,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19490,7 +19502,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19516,7 +19528,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19542,7 +19554,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19568,7 +19580,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19588,7 +19600,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19608,7 +19620,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19628,7 +19640,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19649,7 +19661,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19670,7 +19682,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19691,7 +19703,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19712,7 +19724,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19733,7 +19745,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19754,7 +19766,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19775,7 +19787,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19796,7 +19808,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19817,7 +19829,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19838,7 +19850,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19859,7 +19871,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19880,7 +19892,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19901,7 +19913,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19922,7 +19934,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19943,7 +19955,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19964,7 +19976,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19985,7 +19997,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20006,7 +20018,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20027,7 +20039,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20048,7 +20060,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20057,7 +20069,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20066,7 +20078,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20075,7 +20087,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20084,7 +20096,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20093,7 +20105,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20102,7 +20114,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20111,7 +20123,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20120,7 +20132,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20129,7 +20141,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20138,7 +20150,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20147,7 +20159,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20156,7 +20168,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20165,7 +20177,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20174,7 +20186,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20183,7 +20195,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20192,7 +20204,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20201,7 +20213,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20210,7 +20222,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20219,7 +20231,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20228,7 +20240,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20237,7 +20249,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20246,7 +20258,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20255,7 +20267,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20264,7 +20276,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20273,7 +20285,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20282,7 +20294,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20291,7 +20303,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20300,7 +20312,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20309,7 +20321,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
